--- a/DetailsSpec/Domain Model Class details.xlsx
+++ b/DetailsSpec/Domain Model Class details.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A75289-61FA-4526-B9E7-FA45CE42F916}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Shipments" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="640">
   <si>
     <t>Description</t>
   </si>
@@ -1661,9 +1660,6 @@
     <t>OrderDate</t>
   </si>
   <si>
-    <t>วันที่ผู้ที่คน หรือ องค์กรได้รับคำสั่ง หรือ ออกคำสั่ง</t>
-  </si>
-  <si>
     <t>EntryDate</t>
   </si>
   <si>
@@ -1682,15 +1678,9 @@
     <t>PurchaseOrder</t>
   </si>
   <si>
-    <t>รหัสสั่งขายสินค้าจากลูกค้า</t>
-  </si>
-  <si>
     <t>รหัสสั่งซื้อสินค้าจาก ผู้ผลิต Supplier</t>
   </si>
   <si>
-    <t>คำสั่งขายินค้า จาก ลูกค้า Customer</t>
-  </si>
-  <si>
     <t>OrderItem</t>
   </si>
   <si>
@@ -1757,13 +1747,208 @@
     <t>รายการคำสั่งซื้อสินค้า</t>
   </si>
   <si>
-    <t>ส่งสินค้าไปที่</t>
+    <t>วันที่รับคำสั่ง หรือ ออกคำสั่ง</t>
+  </si>
+  <si>
+    <t>คำสั่งขายสินค้า จาก ลูกค้า Customer</t>
+  </si>
+  <si>
+    <t>รหัสสั่งขายสินค้าให้ลูกค้า</t>
+  </si>
+  <si>
+    <t>1, 2, 3, …</t>
+  </si>
+  <si>
+    <t>ContactMechanism -&gt; Party package</t>
+  </si>
+  <si>
+    <t>PartyRole -&gt; Party package</t>
+  </si>
+  <si>
+    <t>OrderRole</t>
+  </si>
+  <si>
+    <t>PercentContribution</t>
+  </si>
+  <si>
+    <t>Party -&gt; Party package</t>
+  </si>
+  <si>
+    <t>บันทึกผู้ที่เกี่ยวข้องกับการออกคำสั่ง</t>
+  </si>
+  <si>
+    <t>คำสั่ง</t>
+  </si>
+  <si>
+    <t>Involving</t>
+  </si>
+  <si>
+    <t>ผู้ที่เกี่ยวข้องกับการออกคำสั่ง</t>
+  </si>
+  <si>
+    <t>OrderRoleType</t>
+  </si>
+  <si>
+    <t>ประเภทหน้าที่ของผู้เกี่ยวข้องกำคำสั่งนี้</t>
+  </si>
+  <si>
+    <t>เปอร์เซนการมีส่วนร่วม</t>
+  </si>
+  <si>
+    <t>คำอธิบายบทบาทในคำสั่งนี้</t>
+  </si>
+  <si>
+    <t>Sale, Agent, Blogger, Recommender</t>
+  </si>
+  <si>
+    <t>สถานที่, เบอร์โทร หรือ email หรือ บนเวป</t>
+  </si>
+  <si>
+    <t>ที่อยู่ หรือ email กรณีเป็น digital product</t>
+  </si>
+  <si>
+    <t>LocationForProduct</t>
+  </si>
+  <si>
+    <t>BillingLocation</t>
+  </si>
+  <si>
+    <t>BillToCustomer</t>
+  </si>
+  <si>
+    <t>ที่ติดต่อติดตามสินค้าจากผู้ขาย</t>
+  </si>
+  <si>
+    <t>ที่ติดต่อติดตามสินค้าจากผู้ผลิต</t>
+  </si>
+  <si>
+    <t>ผู้ผลิตที่ขายสินค้า</t>
+  </si>
+  <si>
+    <t>Supplier, Vendor</t>
+  </si>
+  <si>
+    <t>BillToBuyer</t>
+  </si>
+  <si>
+    <t>PurchaseOrderItem</t>
+  </si>
+  <si>
+    <t>ที่จัดส่งสินค้าให้ลูกค้า</t>
+  </si>
+  <si>
+    <t>ที่จัดส่งสินค้าให้ผู้ซื้อ</t>
+  </si>
+  <si>
+    <t>สินค้าถูกส่งให้ใคร</t>
+  </si>
+  <si>
+    <t>จุดที่รับคำสั่งขาย</t>
+  </si>
+  <si>
+    <t>จุดที่รับคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>ที่ติดต่อส่งเบิกขายสินค้า</t>
+  </si>
+  <si>
+    <t>ที่ติดต่อส่งเบิกซื้อสินค้า</t>
+  </si>
+  <si>
+    <t>ผู้ซื้อที่ให้ออกคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>ร้านค้าที่ขายสินค้า</t>
+  </si>
+  <si>
+    <t>ส่งเบิกที่ลูกค้า</t>
+  </si>
+  <si>
+    <t>ส่งเบิกที่ผู้ซื้อ</t>
+  </si>
+  <si>
+    <t>SalesOrderLocation</t>
+  </si>
+  <si>
+    <t>PurchaseOrderLocation</t>
+  </si>
+  <si>
+    <t>ShipToBuyer</t>
+  </si>
+  <si>
+    <t>ShipBuyerLocation</t>
+  </si>
+  <si>
+    <t>ShipCustomerLocation</t>
+  </si>
+  <si>
+    <t>ShipToCustomer</t>
+  </si>
+  <si>
+    <t>SalesOrderBy</t>
+  </si>
+  <si>
+    <t>PurchaseOrderBy</t>
+  </si>
+  <si>
+    <t>ลูกค้าที่ให้ออกคำขาย</t>
+  </si>
+  <si>
+    <t>Fulfiller</t>
+  </si>
+  <si>
+    <t>SalesTaxLookup</t>
+  </si>
+  <si>
+    <t>SalesTaxPercentage</t>
+  </si>
+  <si>
+    <t>GeographicBoundary -&gt; Parties package</t>
+  </si>
+  <si>
+    <t>ชาจภาษีขายสินค้าตามสถานที่ ประเทศ</t>
+  </si>
+  <si>
+    <t>ชาจภาษีขายสินค้าตามกลุ่มสินค้า</t>
+  </si>
+  <si>
+    <t>เปอร์เซนที่ชาจจากราคาขาย</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>วันที่บันทึกสถานะคำสั่ง</t>
+  </si>
+  <si>
+    <t>สถานะของคำสั่ง</t>
+  </si>
+  <si>
+    <t>StatusFromOrder</t>
+  </si>
+  <si>
+    <t>StatusFromOrderItem</t>
+  </si>
+  <si>
+    <t>สถานะของรายการคำสั่ง</t>
+  </si>
+  <si>
+    <t>OrderStatusType</t>
+  </si>
+  <si>
+    <t>สถานะ</t>
+  </si>
+  <si>
+    <t>Received, Approved, Canceled</t>
+  </si>
+  <si>
+    <t>Staus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1789,7 +1974,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1811,6 +1996,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,7 +2048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1878,6 +2069,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2163,24 +2355,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26171875" customWidth="1"/>
+    <col min="4" max="4" width="64.26171875" customWidth="1"/>
+    <col min="5" max="5" width="45.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -2197,7 +2389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2210,7 +2402,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>386</v>
@@ -2223,7 +2415,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
         <v>387</v>
@@ -2236,7 +2428,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -2249,7 +2441,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -2262,7 +2454,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -2275,7 +2467,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>388</v>
@@ -2288,7 +2480,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -2301,7 +2493,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
@@ -2314,7 +2506,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>321</v>
@@ -2327,7 +2519,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>322</v>
@@ -2340,7 +2532,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>321</v>
@@ -2353,7 +2545,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>322</v>
@@ -2366,14 +2558,14 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -2386,14 +2578,14 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -2405,14 +2597,14 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15"/>
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2424,14 +2616,14 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2442,14 +2634,14 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2461,14 +2653,14 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="15"/>
       <c r="B25" s="12"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -2480,14 +2672,14 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -2500,14 +2692,14 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -2520,14 +2712,14 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
@@ -2540,7 +2732,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6"/>
       <c r="B33" s="3" t="s">
         <v>37</v>
@@ -2553,7 +2745,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6"/>
       <c r="B34" s="3" t="s">
         <v>39</v>
@@ -2566,7 +2758,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
         <v>323</v>
@@ -2579,7 +2771,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
       <c r="B36" s="3" t="s">
         <v>42</v>
@@ -2592,14 +2784,14 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6" t="s">
         <v>253</v>
       </c>
@@ -2612,7 +2804,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6"/>
       <c r="B39" s="13" t="s">
         <v>324</v>
@@ -2623,7 +2815,7 @@
       <c r="D39" s="13"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6"/>
       <c r="B40" s="13" t="s">
         <v>325</v>
@@ -2634,14 +2826,14 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6" t="s">
         <v>44</v>
       </c>
@@ -2654,7 +2846,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6"/>
       <c r="B43" s="3" t="s">
         <v>46</v>
@@ -2667,1065 +2859,1088 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="6"/>
+      <c r="B44" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
+      <c r="D44" t="s">
+        <v>637</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="10"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="3" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="6"/>
+      <c r="B47" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="10"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6"/>
       <c r="B50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="6"/>
+      <c r="B51" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="6"/>
+      <c r="B52" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="10"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6"/>
       <c r="B55" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6"/>
       <c r="B56" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6"/>
       <c r="B57" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6"/>
       <c r="B58" s="3" t="s">
-        <v>325</v>
+        <v>62</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6"/>
       <c r="B59" s="3" t="s">
-        <v>327</v>
+        <v>68</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6"/>
       <c r="B60" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6"/>
       <c r="B61" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="6"/>
+      <c r="B62" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="6"/>
+      <c r="B63" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="10"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="3" t="s">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="6"/>
+      <c r="B66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="10"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3" t="s">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="3" t="s">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="6"/>
+      <c r="B69" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="3" t="s">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="6"/>
+      <c r="B70" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="10"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="6"/>
       <c r="B73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="6"/>
+      <c r="B74" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="6"/>
+      <c r="B75" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="10"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3" t="s">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="6"/>
       <c r="B78" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="6"/>
+      <c r="B79" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="6"/>
+      <c r="B80" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="10"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3" t="s">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="3" t="s">
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="6"/>
+      <c r="B83" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="3" t="s">
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="6"/>
+      <c r="B84" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="10"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3" t="s">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6"/>
       <c r="B87" s="3" t="s">
-        <v>332</v>
+        <v>105</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="6"/>
       <c r="B88" s="3" t="s">
-        <v>333</v>
+        <v>39</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="6"/>
       <c r="B89" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="6"/>
+      <c r="B90" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="6"/>
+      <c r="B91" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="10"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3" t="s">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="3" t="s">
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="6"/>
+      <c r="B94" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3" t="s">
+      <c r="C94" s="3"/>
+      <c r="D94" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="10"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3" t="s">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="6"/>
       <c r="B97" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6"/>
       <c r="B98" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="6"/>
+      <c r="B99" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="6"/>
+      <c r="B100" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="10"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3" t="s">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6"/>
       <c r="B103" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="6"/>
+      <c r="B104" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="6"/>
+      <c r="B105" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="10"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3" t="s">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="3" t="s">
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="6"/>
+      <c r="B108" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="3" t="s">
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="6"/>
+      <c r="B109" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="10"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3" t="s">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="6"/>
       <c r="B112" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>383</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="6"/>
       <c r="B113" s="3" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>383</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="6"/>
       <c r="B114" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>72</v>
+        <v>383</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="6"/>
       <c r="B115" s="3" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>72</v>
+        <v>383</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="6"/>
       <c r="B116" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="6"/>
       <c r="B117" s="3" t="s">
-        <v>325</v>
+        <v>145</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="6"/>
       <c r="B118" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6"/>
       <c r="B119" s="3" t="s">
-        <v>157</v>
+        <v>325</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="6"/>
       <c r="B120" s="3" t="s">
-        <v>338</v>
+        <v>155</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="6"/>
       <c r="B121" s="3" t="s">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6"/>
       <c r="B122" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="6"/>
+      <c r="B123" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="6"/>
+      <c r="B124" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="10"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3" t="s">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="B125" s="3" t="s">
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="6"/>
+      <c r="B127" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
-      <c r="B126" s="3" t="s">
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="6"/>
+      <c r="B128" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="10"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
-      <c r="B131" s="3" t="s">
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="6"/>
+      <c r="B133" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
-      <c r="B132" t="s">
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="6"/>
+      <c r="B134" t="s">
         <v>341</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C134" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="D134" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="10"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3734,24 +3949,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E157" sqref="E157"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83984375" customWidth="1"/>
+    <col min="2" max="2" width="21.578125" customWidth="1"/>
+    <col min="3" max="3" width="32.68359375" customWidth="1"/>
+    <col min="4" max="4" width="42.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -3768,7 +3983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>303</v>
       </c>
@@ -3779,14 +3994,14 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -3797,7 +4012,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>306</v>
       </c>
@@ -3805,7 +4020,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>308</v>
       </c>
@@ -3813,7 +4028,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>309</v>
       </c>
@@ -3821,7 +4036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>311</v>
       </c>
@@ -3832,7 +4047,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>312</v>
       </c>
@@ -3840,7 +4055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>313</v>
       </c>
@@ -3848,14 +4063,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>307</v>
       </c>
@@ -3863,7 +4078,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>124</v>
       </c>
@@ -3874,14 +4089,14 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>311</v>
       </c>
@@ -3889,7 +4104,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>124</v>
       </c>
@@ -3900,14 +4115,14 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>317</v>
       </c>
@@ -3918,7 +4133,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>124</v>
       </c>
@@ -3926,14 +4141,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -3944,7 +4159,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>179</v>
       </c>
@@ -3955,7 +4170,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>180</v>
       </c>
@@ -3966,7 +4181,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>324</v>
       </c>
@@ -3977,7 +4192,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>331</v>
       </c>
@@ -3988,14 +4203,14 @@
         <v>363</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>361</v>
       </c>
@@ -4006,7 +4221,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -4020,14 +4235,14 @@
         <v>365</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>368</v>
       </c>
@@ -4038,14 +4253,14 @@
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -4059,14 +4274,14 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>372</v>
       </c>
@@ -4077,14 +4292,14 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>375</v>
       </c>
@@ -4095,14 +4310,14 @@
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>377</v>
       </c>
@@ -4116,14 +4331,14 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>382</v>
       </c>
@@ -4134,7 +4349,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>178</v>
       </c>
@@ -4142,7 +4357,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
         <v>224</v>
       </c>
@@ -4150,7 +4365,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>324</v>
       </c>
@@ -4161,7 +4376,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>331</v>
       </c>
@@ -4175,14 +4390,14 @@
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>406</v>
       </c>
@@ -4196,14 +4411,14 @@
         <v>414</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>394</v>
       </c>
@@ -4214,14 +4429,14 @@
         <v>401</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>396</v>
       </c>
@@ -4232,7 +4447,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
         <v>84</v>
       </c>
@@ -4243,14 +4458,14 @@
         <v>495</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>398</v>
       </c>
@@ -4261,7 +4476,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
         <v>124</v>
       </c>
@@ -4272,14 +4487,14 @@
         <v>411</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>400</v>
       </c>
@@ -4290,14 +4505,14 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>405</v>
       </c>
@@ -4305,7 +4520,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
         <v>84</v>
       </c>
@@ -4316,14 +4531,14 @@
         <v>404</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>409</v>
       </c>
@@ -4337,14 +4552,14 @@
         <v>418</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>415</v>
       </c>
@@ -4355,14 +4570,14 @@
         <v>416</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>419</v>
       </c>
@@ -4373,7 +4588,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" t="s">
         <v>178</v>
       </c>
@@ -4381,7 +4596,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" t="s">
         <v>224</v>
       </c>
@@ -4389,14 +4604,14 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>420</v>
       </c>
@@ -4407,7 +4622,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" t="s">
         <v>338</v>
       </c>
@@ -4418,7 +4633,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" t="s">
         <v>339</v>
       </c>
@@ -4429,14 +4644,14 @@
         <v>396</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>423</v>
       </c>
@@ -4447,7 +4662,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
         <v>338</v>
       </c>
@@ -4458,7 +4673,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" t="s">
         <v>339</v>
       </c>
@@ -4469,14 +4684,14 @@
         <v>425</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>427</v>
       </c>
@@ -4487,7 +4702,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" t="s">
         <v>124</v>
       </c>
@@ -4498,7 +4713,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -4506,7 +4721,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" t="s">
         <v>338</v>
       </c>
@@ -4517,7 +4732,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" t="s">
         <v>339</v>
       </c>
@@ -4528,14 +4743,14 @@
         <v>431</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>432</v>
       </c>
@@ -4546,7 +4761,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" t="s">
         <v>178</v>
       </c>
@@ -4554,7 +4769,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" t="s">
         <v>224</v>
       </c>
@@ -4562,7 +4777,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" t="s">
         <v>356</v>
       </c>
@@ -4570,7 +4785,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" t="s">
         <v>354</v>
       </c>
@@ -4578,14 +4793,14 @@
         <v>435</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>435</v>
       </c>
@@ -4596,7 +4811,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" t="s">
         <v>499</v>
       </c>
@@ -4604,7 +4819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" t="s">
         <v>436</v>
       </c>
@@ -4612,7 +4827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" t="s">
         <v>496</v>
       </c>
@@ -4620,7 +4835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" t="s">
         <v>437</v>
       </c>
@@ -4628,7 +4843,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" t="s">
         <v>438</v>
       </c>
@@ -4636,7 +4851,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" t="s">
         <v>440</v>
       </c>
@@ -4644,7 +4859,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" t="s">
         <v>441</v>
       </c>
@@ -4652,7 +4867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
         <v>439</v>
       </c>
@@ -4660,14 +4875,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>443</v>
       </c>
@@ -4678,7 +4893,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
         <v>178</v>
       </c>
@@ -4686,7 +4901,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
         <v>224</v>
       </c>
@@ -4694,7 +4909,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
         <v>169</v>
       </c>
@@ -4702,7 +4917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" t="s">
         <v>445</v>
       </c>
@@ -4713,7 +4928,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" t="s">
         <v>356</v>
       </c>
@@ -4724,7 +4939,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" t="s">
         <v>448</v>
       </c>
@@ -4735,14 +4950,14 @@
         <v>450</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>451</v>
       </c>
@@ -4753,7 +4968,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" t="s">
         <v>178</v>
       </c>
@@ -4761,7 +4976,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" t="s">
         <v>224</v>
       </c>
@@ -4769,7 +4984,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" t="s">
         <v>452</v>
       </c>
@@ -4780,7 +4995,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" t="s">
         <v>453</v>
       </c>
@@ -4794,14 +5009,14 @@
         <v>458</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>449</v>
       </c>
@@ -4812,7 +5027,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" t="s">
         <v>331</v>
       </c>
@@ -4823,14 +5038,14 @@
         <v>463</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>460</v>
       </c>
@@ -4841,7 +5056,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
         <v>499</v>
       </c>
@@ -4849,7 +5064,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" t="s">
         <v>436</v>
       </c>
@@ -4857,7 +5072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
         <v>496</v>
       </c>
@@ -4865,7 +5080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" t="s">
         <v>437</v>
       </c>
@@ -4873,7 +5088,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" t="s">
         <v>438</v>
       </c>
@@ -4881,7 +5096,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" t="s">
         <v>440</v>
       </c>
@@ -4889,7 +5104,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" t="s">
         <v>441</v>
       </c>
@@ -4897,7 +5112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" t="s">
         <v>439</v>
       </c>
@@ -4905,14 +5120,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>466</v>
       </c>
@@ -4920,7 +5135,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" t="s">
         <v>341</v>
       </c>
@@ -4931,14 +5146,14 @@
         <v>469</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>467</v>
       </c>
@@ -4946,7 +5161,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" t="s">
         <v>461</v>
       </c>
@@ -4957,14 +5172,14 @@
         <v>468</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>462</v>
       </c>
@@ -4972,7 +5187,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" t="s">
         <v>124</v>
       </c>
@@ -4983,14 +5198,14 @@
         <v>464</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>449</v>
       </c>
@@ -5001,7 +5216,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" t="s">
         <v>338</v>
       </c>
@@ -5009,7 +5224,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" t="s">
         <v>339</v>
       </c>
@@ -5017,14 +5232,14 @@
         <v>449</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>471</v>
       </c>
@@ -5035,7 +5250,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" t="s">
         <v>448</v>
       </c>
@@ -5043,7 +5258,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" t="s">
         <v>472</v>
       </c>
@@ -5054,14 +5269,14 @@
         <v>473</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>470</v>
       </c>
@@ -5072,7 +5287,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" t="s">
         <v>0</v>
       </c>
@@ -5080,14 +5295,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>475</v>
       </c>
@@ -5098,7 +5313,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" t="s">
         <v>84</v>
       </c>
@@ -5109,14 +5324,14 @@
         <v>481</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>477</v>
       </c>
@@ -5124,7 +5339,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" t="s">
         <v>124</v>
       </c>
@@ -5135,14 +5350,14 @@
         <v>497</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>478</v>
       </c>
@@ -5153,7 +5368,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" t="s">
         <v>84</v>
       </c>
@@ -5164,14 +5379,14 @@
         <v>482</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>483</v>
       </c>
@@ -5182,7 +5397,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" t="s">
         <v>84</v>
       </c>
@@ -5193,7 +5408,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" t="s">
         <v>354</v>
       </c>
@@ -5204,14 +5419,14 @@
         <v>491</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>488</v>
       </c>
@@ -5219,7 +5434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" t="s">
         <v>178</v>
       </c>
@@ -5227,7 +5442,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" t="s">
         <v>224</v>
       </c>
@@ -5235,7 +5450,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" t="s">
         <v>324</v>
       </c>
@@ -5246,7 +5461,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" t="s">
         <v>325</v>
       </c>
@@ -5257,7 +5472,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" t="s">
         <v>331</v>
       </c>
@@ -5268,14 +5483,14 @@
         <v>490</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>486</v>
       </c>
@@ -5283,7 +5498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" t="s">
         <v>0</v>
       </c>
@@ -5297,7 +5512,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -5311,24 +5526,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.26171875" customWidth="1"/>
+    <col min="3" max="3" width="40.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.15625" customWidth="1"/>
+    <col min="5" max="5" width="51.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -5345,7 +5560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -5353,7 +5568,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>124</v>
       </c>
@@ -5361,7 +5576,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>501</v>
       </c>
@@ -5372,7 +5587,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>502</v>
       </c>
@@ -5383,7 +5598,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>505</v>
       </c>
@@ -5394,7 +5609,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>169</v>
       </c>
@@ -5402,7 +5617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -5410,14 +5625,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -5428,7 +5643,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>209</v>
       </c>
@@ -5439,7 +5654,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>176</v>
       </c>
@@ -5450,7 +5665,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>343</v>
       </c>
@@ -5461,14 +5676,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -5479,14 +5694,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>177</v>
       </c>
@@ -5497,7 +5712,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>178</v>
       </c>
@@ -5508,7 +5723,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>224</v>
       </c>
@@ -5519,7 +5734,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>181</v>
       </c>
@@ -5530,7 +5745,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>169</v>
       </c>
@@ -5538,7 +5753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>344</v>
       </c>
@@ -5549,7 +5764,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>345</v>
       </c>
@@ -5560,14 +5775,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -5578,7 +5793,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -5586,14 +5801,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -5607,14 +5822,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -5628,14 +5843,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>186</v>
       </c>
@@ -5649,14 +5864,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>193</v>
       </c>
@@ -5667,7 +5882,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>178</v>
       </c>
@@ -5678,7 +5893,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>224</v>
       </c>
@@ -5689,7 +5904,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>325</v>
       </c>
@@ -5700,7 +5915,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>324</v>
       </c>
@@ -5711,14 +5926,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>207</v>
       </c>
@@ -5729,7 +5944,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>392</v>
       </c>
@@ -5740,14 +5955,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>211</v>
       </c>
@@ -5755,14 +5970,14 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>212</v>
       </c>
@@ -5770,14 +5985,14 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -5785,14 +6000,14 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -5803,14 +6018,14 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>215</v>
       </c>
@@ -5818,14 +6033,14 @@
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>216</v>
       </c>
@@ -5833,14 +6048,14 @@
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -5848,7 +6063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -5859,14 +6074,14 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>222</v>
       </c>
@@ -5877,7 +6092,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
         <v>346</v>
       </c>
@@ -5888,7 +6103,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" t="s">
         <v>178</v>
       </c>
@@ -5896,7 +6111,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" t="s">
         <v>224</v>
       </c>
@@ -5904,7 +6119,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" t="s">
         <v>331</v>
       </c>
@@ -5915,14 +6130,14 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>228</v>
       </c>
@@ -5933,14 +6148,14 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -5951,14 +6166,14 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>230</v>
       </c>
@@ -5969,14 +6184,14 @@
         <v>509</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>231</v>
       </c>
@@ -5987,14 +6202,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>226</v>
       </c>
@@ -6005,7 +6220,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -6013,7 +6228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
         <v>347</v>
       </c>
@@ -6024,14 +6239,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>236</v>
       </c>
@@ -6045,14 +6260,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>238</v>
       </c>
@@ -6063,14 +6278,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>240</v>
       </c>
@@ -6078,7 +6293,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" t="s">
         <v>241</v>
       </c>
@@ -6092,7 +6307,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" t="s">
         <v>349</v>
       </c>
@@ -6106,14 +6321,14 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>243</v>
       </c>
@@ -6127,14 +6342,14 @@
         <v>245</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>249</v>
       </c>
@@ -6145,14 +6360,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>256</v>
       </c>
@@ -6163,19 +6378,19 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>246</v>
       </c>
@@ -6183,7 +6398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" t="s">
         <v>258</v>
       </c>
@@ -6197,7 +6412,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" t="s">
         <v>0</v>
       </c>
@@ -6208,14 +6423,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>295</v>
       </c>
@@ -6229,14 +6444,14 @@
         <v>538</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>289</v>
       </c>
@@ -6250,14 +6465,14 @@
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>261</v>
       </c>
@@ -6268,7 +6483,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
         <v>262</v>
       </c>
@@ -6279,7 +6494,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
         <v>350</v>
       </c>
@@ -6287,7 +6502,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
         <v>351</v>
       </c>
@@ -6295,14 +6510,14 @@
         <v>246</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>265</v>
       </c>
@@ -6313,7 +6528,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" t="s">
         <v>267</v>
       </c>
@@ -6324,7 +6539,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
         <v>352</v>
       </c>
@@ -6335,7 +6550,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
         <v>510</v>
       </c>
@@ -6346,7 +6561,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" t="s">
         <v>353</v>
       </c>
@@ -6357,7 +6572,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" t="s">
         <v>354</v>
       </c>
@@ -6368,7 +6583,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" t="s">
         <v>355</v>
       </c>
@@ -6382,7 +6597,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" t="s">
         <v>267</v>
       </c>
@@ -6393,14 +6608,14 @@
         <v>525</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>271</v>
       </c>
@@ -6411,7 +6626,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" t="s">
         <v>278</v>
       </c>
@@ -6419,7 +6634,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" t="s">
         <v>39</v>
       </c>
@@ -6427,7 +6642,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
         <v>384</v>
       </c>
@@ -6435,14 +6650,14 @@
         <v>383</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>269</v>
       </c>
@@ -6450,7 +6665,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
         <v>0</v>
       </c>
@@ -6461,14 +6676,14 @@
         <v>512</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>513</v>
       </c>
@@ -6479,7 +6694,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" t="s">
         <v>39</v>
       </c>
@@ -6490,7 +6705,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" t="s">
         <v>514</v>
       </c>
@@ -6501,7 +6716,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" t="s">
         <v>169</v>
       </c>
@@ -6512,7 +6727,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" t="s">
         <v>517</v>
       </c>
@@ -6523,14 +6738,14 @@
         <v>519</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>516</v>
       </c>
@@ -6538,7 +6753,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" t="s">
         <v>0</v>
       </c>
@@ -6549,14 +6764,14 @@
         <v>521</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>523</v>
       </c>
@@ -6567,7 +6782,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" t="s">
         <v>338</v>
       </c>
@@ -6578,7 +6793,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" t="s">
         <v>339</v>
       </c>
@@ -6589,7 +6804,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" t="s">
         <v>529</v>
       </c>
@@ -6600,14 +6815,14 @@
         <v>530</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>528</v>
       </c>
@@ -6615,7 +6830,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" t="s">
         <v>46</v>
       </c>
@@ -6626,7 +6841,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" t="s">
         <v>529</v>
       </c>
@@ -6637,14 +6852,14 @@
         <v>530</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>532</v>
       </c>
@@ -6652,7 +6867,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" t="s">
         <v>124</v>
       </c>
@@ -6666,7 +6881,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" t="s">
         <v>0</v>
       </c>
@@ -6674,14 +6889,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>279</v>
       </c>
@@ -6689,7 +6904,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" t="s">
         <v>178</v>
       </c>
@@ -6697,7 +6912,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" t="s">
         <v>385</v>
       </c>
@@ -6705,7 +6920,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" t="s">
         <v>280</v>
       </c>
@@ -6713,7 +6928,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" t="s">
         <v>281</v>
       </c>
@@ -6721,7 +6936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" t="s">
         <v>169</v>
       </c>
@@ -6729,7 +6944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" t="s">
         <v>294</v>
       </c>
@@ -6737,7 +6952,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" t="s">
         <v>300</v>
       </c>
@@ -6745,7 +6960,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" t="s">
         <v>301</v>
       </c>
@@ -6753,7 +6968,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" t="s">
         <v>356</v>
       </c>
@@ -6761,14 +6976,14 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>282</v>
       </c>
@@ -6779,14 +6994,14 @@
         <v>284</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>285</v>
       </c>
@@ -6797,14 +7012,14 @@
         <v>286</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>287</v>
       </c>
@@ -6818,14 +7033,14 @@
         <v>536</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>288</v>
       </c>
@@ -6836,14 +7051,14 @@
         <v>494</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="16" t="s">
         <v>292</v>
       </c>
@@ -6854,7 +7069,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" t="s">
         <v>492</v>
       </c>
@@ -6865,14 +7080,14 @@
         <v>299</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>293</v>
       </c>
@@ -6883,40 +7098,88 @@
         <v>291</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
     </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="s">
+        <v>624</v>
+      </c>
+      <c r="C167" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B168" t="s">
+        <v>625</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D168" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B169" t="s">
+        <v>324</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="D169" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B170" t="s">
+        <v>356</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D170" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="18"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E92" r:id="rId1" xr:uid="{FFF2125C-A90B-4C71-8E4A-BA4BC0D6F796}"/>
+    <hyperlink ref="E92" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62:E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.41796875" customWidth="1"/>
+    <col min="2" max="2" width="21.68359375" customWidth="1"/>
+    <col min="3" max="3" width="33.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.68359375" customWidth="1"/>
+    <col min="5" max="5" width="34.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -6933,7 +7196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>542</v>
       </c>
@@ -6944,7 +7207,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>544</v>
       </c>
@@ -6952,32 +7215,39 @@
         <v>383</v>
       </c>
       <c r="D3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>546</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
       <c r="D4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>548</v>
       </c>
-      <c r="C6" t="s">
-        <v>549</v>
-      </c>
       <c r="D6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>84</v>
       </c>
@@ -6985,198 +7255,592 @@
         <v>73</v>
       </c>
       <c r="D7" t="s">
+        <v>576</v>
+      </c>
+      <c r="E7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D8" t="s">
+        <v>606</v>
+      </c>
+      <c r="E8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C9" t="s">
+        <v>578</v>
+      </c>
+      <c r="D9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C10" t="s">
+        <v>578</v>
+      </c>
+      <c r="D10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C11" t="s">
+        <v>579</v>
+      </c>
+      <c r="D11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C12" t="s">
+        <v>579</v>
+      </c>
+      <c r="D12" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C13" t="s">
+        <v>579</v>
+      </c>
+      <c r="D13" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>615</v>
+      </c>
+      <c r="C17" t="s">
+        <v>578</v>
+      </c>
+      <c r="D17" t="s">
+        <v>607</v>
+      </c>
+      <c r="E17" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>594</v>
+      </c>
+      <c r="C18" t="s">
+        <v>578</v>
+      </c>
+      <c r="D18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>595</v>
+      </c>
+      <c r="C19" t="s">
+        <v>578</v>
+      </c>
+      <c r="D19" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>621</v>
+      </c>
+      <c r="C20" t="s">
+        <v>579</v>
+      </c>
+      <c r="D20" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>623</v>
+      </c>
+      <c r="C21" t="s">
+        <v>579</v>
+      </c>
+      <c r="D21" t="s">
+        <v>599</v>
+      </c>
+      <c r="E21" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C22" t="s">
+        <v>579</v>
+      </c>
+      <c r="D22" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
         <v>552</v>
       </c>
-      <c r="E7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>551</v>
-      </c>
-      <c r="C9" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" t="s">
+        <v>542</v>
+      </c>
+      <c r="D25" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>553</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>555</v>
+      </c>
+      <c r="E26" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C31" t="s">
+        <v>559</v>
+      </c>
+      <c r="D31" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>560</v>
+      </c>
+      <c r="C32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" t="s">
+        <v>568</v>
+      </c>
+      <c r="E32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="s">
+        <v>561</v>
+      </c>
+      <c r="C33" t="s">
         <v>73</v>
       </c>
-      <c r="D10" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>555</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D33" t="s">
+        <v>564</v>
+      </c>
+      <c r="E33" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>570</v>
+      </c>
+      <c r="C37" t="s">
+        <v>571</v>
+      </c>
+      <c r="D37" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
+        <v>618</v>
+      </c>
+      <c r="C38" t="s">
+        <v>578</v>
+      </c>
+      <c r="D38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E38" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="s">
+        <v>619</v>
+      </c>
+      <c r="C39" t="s">
+        <v>579</v>
+      </c>
+      <c r="D39" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>602</v>
+      </c>
+      <c r="C41" t="s">
+        <v>571</v>
+      </c>
+      <c r="D41" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="s">
+        <v>617</v>
+      </c>
+      <c r="C42" t="s">
+        <v>578</v>
+      </c>
+      <c r="D42" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
+        <v>616</v>
+      </c>
+      <c r="C43" t="s">
+        <v>579</v>
+      </c>
+      <c r="D43" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>580</v>
+      </c>
+      <c r="C45" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D45" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>581</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
+        <v>325</v>
+      </c>
+      <c r="C47" t="s">
         <v>542</v>
       </c>
-      <c r="D13" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>556</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D16" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>280</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C19" t="s">
-        <v>562</v>
-      </c>
-      <c r="D19" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>563</v>
-      </c>
-      <c r="C20" t="s">
-        <v>383</v>
-      </c>
-      <c r="D20" t="s">
-        <v>571</v>
-      </c>
-      <c r="E20" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>564</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D47" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" t="s">
+        <v>585</v>
+      </c>
+      <c r="C48" t="s">
+        <v>582</v>
+      </c>
+      <c r="D48" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
+        <v>331</v>
+      </c>
+      <c r="C49" t="s">
+        <v>587</v>
+      </c>
+      <c r="D49" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>587</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
         <v>73</v>
       </c>
-      <c r="D21" t="s">
-        <v>567</v>
-      </c>
-      <c r="E21" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D52" t="s">
+        <v>590</v>
+      </c>
+      <c r="E52" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>630</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" t="s">
+        <v>634</v>
+      </c>
+      <c r="C56" t="s">
+        <v>552</v>
+      </c>
+      <c r="D56" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" t="s">
+        <v>633</v>
+      </c>
+      <c r="C57" t="s">
+        <v>542</v>
+      </c>
+      <c r="D57" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" t="s">
+        <v>529</v>
+      </c>
+      <c r="C58" t="s">
+        <v>636</v>
+      </c>
+      <c r="D58" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>636</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" t="s">
+        <v>529</v>
+      </c>
+      <c r="C61" t="s">
         <v>73</v>
       </c>
-      <c r="D22" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>573</v>
-      </c>
-      <c r="C25" t="s">
-        <v>574</v>
-      </c>
-      <c r="D25" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" t="s">
-        <v>449</v>
-      </c>
-      <c r="D26" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>551</v>
-      </c>
-      <c r="C28" t="s">
-        <v>574</v>
-      </c>
-      <c r="D28" t="s">
-        <v>576</v>
-      </c>
+      <c r="E61" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7184,7 +7848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7192,16 +7856,16 @@
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.68359375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.68359375" customWidth="1"/>
+    <col min="4" max="4" width="16.83984375" customWidth="1"/>
+    <col min="5" max="5" width="27.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>

--- a/DetailsSpec/Domain Model Class details.xlsx
+++ b/DetailsSpec/Domain Model Class details.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF648E73-37D6-4F22-A936-62741B0028BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7383B6-B80F-44FF-81E1-3E5785384EDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parties" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="759">
   <si>
     <t>Description</t>
   </si>
@@ -2052,19 +2052,256 @@
     <t>Packages</t>
   </si>
   <si>
-    <t>Sahapat.Products.Models</t>
-  </si>
-  <si>
-    <t>Sahapat.Parties.Models</t>
-  </si>
-  <si>
-    <t>Sahapat.Orders.Models</t>
-  </si>
-  <si>
-    <t>Sahapat.Shipments.Models</t>
-  </si>
-  <si>
-    <t>Sahapat.Invoices.Models</t>
+    <t>โมเดลสำหรับ ผู้คล และ องค์กร, บทบาท และความสัมพันธ์, สถานประกอบการ, กำหนดวัตถุประสงค์ในการติดต่อ สื่อสารกันระหว่าง บทบาท และสถานประกอบการ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">โมเดลสำหรับ สินค้า ทั้งผลิตภันฑ์ และบริการ การแบ่งประเภทสินค้า การกำหนดคุณสมบัติของสินค้า การกำหนดราคา การกำหนดต้นทุน และการจัดการสินค้าคงเหลือ </t>
+  </si>
+  <si>
+    <t>โมเดลสำหรับ คำสั่งในกิจกรรมต่างๆที่เกิดขึ้นในโมเดลธุรกิจ เช่น คำสั่งซื้อ, คำสั่งขาย, คำสั่งโอนสินค้า องค์ประกอบสำคัญของคำสั่ง คือ ผู้คน และองค์, สินค้า, การส่งมอบ, การเรียกเบิก และชาจค่าราคากับคำสั่งนั้น</t>
+  </si>
+  <si>
+    <t>โมเดลสำหรับ การขนส่งสินค้า ระหว่างผู้คน และองค์กร ที่เกิดขึ้นจากคำสั่ง ข้อมูลที่จำเป็นของการขนส่ง คือ ที่อยู่ และสถานที่ของผู้ส่ง ผู้รับ สินค้า เส้นทางขนส่ง ในโมเดลนี้รวมกระบวนการหยิบสินค้าจากสถานที่เก็บสินค้า</t>
+  </si>
+  <si>
+    <t>โมเดลสำหรับ การเบิก, บัญชีการเบิก ความสัมพันฐ์ และหน้าที่ของบัญชีการเบิกกับผู้คนและองค์กร, ใบชาจ หรือแจ้งราคาของสินค้าในคำสั่งเพื่อเบิก และข้อมูลการชำระใบแจ้งราคา</t>
+  </si>
+  <si>
+    <t>InvoiceItem</t>
+  </si>
+  <si>
+    <t>ใช้ออกเพื่อชาจราคา คำสั่ง</t>
+  </si>
+  <si>
+    <t>TaxableFlag</t>
+  </si>
+  <si>
+    <t>N = ไม่ต้องใช้คำนวน tax, Y = ใช้คำนวน tax</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>จำนวนที่ชาจไป</t>
+  </si>
+  <si>
+    <t>มูลค่าที่ชาจไป</t>
+  </si>
+  <si>
+    <t>SalesInvoiceItem</t>
+  </si>
+  <si>
+    <t>Subclass -&gt; InvoiceItem</t>
+  </si>
+  <si>
+    <t>PurchaseInvoiceItem</t>
+  </si>
+  <si>
+    <t>InvoiceItemType</t>
+  </si>
+  <si>
+    <t>DescripbedBy</t>
+  </si>
+  <si>
+    <t>ChargeFor</t>
+  </si>
+  <si>
+    <t>Product -&gt; package Products</t>
+  </si>
+  <si>
+    <t>ChargeForProduct</t>
+  </si>
+  <si>
+    <t>ChargeForProductFeature</t>
+  </si>
+  <si>
+    <t>ChargeForInventoryItem</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>InvoiceDate</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>สำหรับบอกผู้ถูกชาจ</t>
+  </si>
+  <si>
+    <t>ออกชาจสำหรับคำสั่งขาย</t>
+  </si>
+  <si>
+    <t>ออกชาจสำหรับคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>InvoiceAdjustment</t>
+  </si>
+  <si>
+    <t>InvoiceMiscellaneousChage</t>
+  </si>
+  <si>
+    <t>Subclass -&gt; InvoiceAdjustment</t>
+  </si>
+  <si>
+    <t>InvoiceDiscountAdjustment</t>
+  </si>
+  <si>
+    <t>InvoiceSurchargeAdjustment</t>
+  </si>
+  <si>
+    <t>InvoiceSalesTax</t>
+  </si>
+  <si>
+    <t>InvoiceShippingAndHandlingCharge</t>
+  </si>
+  <si>
+    <t>InvoiceFee</t>
+  </si>
+  <si>
+    <t>AdjustedBy</t>
+  </si>
+  <si>
+    <t>InvoiceAcquiringItem</t>
+  </si>
+  <si>
+    <t>InvoiceProductFeatureItem</t>
+  </si>
+  <si>
+    <t>Subclass -&gt; InvoiceAcquiringItem</t>
+  </si>
+  <si>
+    <t>SoldFor</t>
+  </si>
+  <si>
+    <t>InvoiceProductItem</t>
+  </si>
+  <si>
+    <t>InvoiceWorkEffortItem</t>
+  </si>
+  <si>
+    <t>InvoiceTimeEntryItem</t>
+  </si>
+  <si>
+    <t>AdjustmentType</t>
+  </si>
+  <si>
+    <t>InvoiceRole</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ForInvoice</t>
+  </si>
+  <si>
+    <t>InvoiceRoleType</t>
+  </si>
+  <si>
+    <t>AddressedTo</t>
+  </si>
+  <si>
+    <t>SentFrom</t>
+  </si>
+  <si>
+    <t>BilledToParty</t>
+  </si>
+  <si>
+    <t>BilledToBillingAccount</t>
+  </si>
+  <si>
+    <t>BillingAccount</t>
+  </si>
+  <si>
+    <t>BilledFromParty</t>
+  </si>
+  <si>
+    <t>BillingAccountRole</t>
+  </si>
+  <si>
+    <t>AccountFor</t>
+  </si>
+  <si>
+    <t>BillingAccountRoleType</t>
+  </si>
+  <si>
+    <t>UsedBy</t>
+  </si>
+  <si>
+    <t>BilledAt</t>
+  </si>
+  <si>
+    <t>ShipmentItemBilling</t>
+  </si>
+  <si>
+    <t>InvoiceAssigmentTo</t>
+  </si>
+  <si>
+    <t>ShipmentItem -&gt; Shipments package</t>
+  </si>
+  <si>
+    <t>ShipmentAssigmentFor</t>
+  </si>
+  <si>
+    <t>PaymentApplication</t>
+  </si>
+  <si>
+    <t>AmountApplied</t>
+  </si>
+  <si>
+    <t>Applying</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>AppliedFor</t>
+  </si>
+  <si>
+    <t>PaymentRefNum</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Receipt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subclass -&gt; Payment </t>
+  </si>
+  <si>
+    <t>Disbursement</t>
+  </si>
+  <si>
+    <t>PaidVia</t>
+  </si>
+  <si>
+    <t>PaymentMethodType</t>
+  </si>
+  <si>
+    <t>FromParty</t>
+  </si>
+  <si>
+    <t>ToParty</t>
+  </si>
+  <si>
+    <t>SPC.Parties.Models</t>
+  </si>
+  <si>
+    <t>SPC.Products.Models</t>
+  </si>
+  <si>
+    <t>SPC.Orders.Models</t>
+  </si>
+  <si>
+    <t>SPC.Shipments.Models</t>
+  </si>
+  <si>
+    <t>SPC.Invoices.Models</t>
   </si>
 </sst>
 </file>
@@ -2488,8 +2725,8 @@
   <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4153,7 +4390,7 @@
   <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
@@ -5749,8 +5986,8 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6622,7 +6859,7 @@
   <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -8213,20 +8450,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8244,6 +8481,720 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>728</v>
+      </c>
+      <c r="C10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>680</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>682</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>684</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>691</v>
+      </c>
+      <c r="C17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>694</v>
+      </c>
+      <c r="C18" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>695</v>
+      </c>
+      <c r="C19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>696</v>
+      </c>
+      <c r="C20" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C21" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>687</v>
+      </c>
+      <c r="C23" t="s">
+        <v>688</v>
+      </c>
+      <c r="D23" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>689</v>
+      </c>
+      <c r="C25" t="s">
+        <v>688</v>
+      </c>
+      <c r="D25" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>690</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>704</v>
+      </c>
+      <c r="C30" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>703</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>712</v>
+      </c>
+      <c r="C32" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>720</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>705</v>
+      </c>
+      <c r="C38" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>707</v>
+      </c>
+      <c r="C40" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>708</v>
+      </c>
+      <c r="C42" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C44" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>710</v>
+      </c>
+      <c r="C46" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>711</v>
+      </c>
+      <c r="C48" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>713</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>714</v>
+      </c>
+      <c r="C52" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>692</v>
+      </c>
+      <c r="C53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>716</v>
+      </c>
+      <c r="C54" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>717</v>
+      </c>
+      <c r="C56" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>692</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>718</v>
+      </c>
+      <c r="C59" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>719</v>
+      </c>
+      <c r="C61" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>721</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>722</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>703</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>723</v>
+      </c>
+      <c r="C66" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>329</v>
+      </c>
+      <c r="C67" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>323</v>
+      </c>
+      <c r="C68" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>724</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>732</v>
+      </c>
+      <c r="C76" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>329</v>
+      </c>
+      <c r="C77" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>322</v>
+      </c>
+      <c r="C78" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>734</v>
+      </c>
+      <c r="C79" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>729</v>
+      </c>
+      <c r="C81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>735</v>
+      </c>
+      <c r="C85" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>733</v>
+      </c>
+      <c r="C87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>736</v>
+      </c>
+      <c r="C90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>737</v>
+      </c>
+      <c r="C91" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>739</v>
+      </c>
+      <c r="C92" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>740</v>
+      </c>
+      <c r="C94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>741</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>744</v>
+      </c>
+      <c r="C96" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>742</v>
+      </c>
+      <c r="C97" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>327</v>
+      </c>
+      <c r="C98" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>729</v>
+      </c>
+      <c r="C100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>743</v>
+      </c>
+      <c r="C105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>745</v>
+      </c>
+      <c r="C107" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>684</v>
+      </c>
+      <c r="C108" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>750</v>
+      </c>
+      <c r="C110" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>752</v>
+      </c>
+      <c r="C111" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>753</v>
+      </c>
+      <c r="C112" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>747</v>
+      </c>
+      <c r="C114" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>749</v>
+      </c>
+      <c r="C116" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -8253,49 +9204,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84249ED9-281B-4B1B-B0B3-FF6EFD745BE4}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="189.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B4" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B5" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B6" t="s">
         <v>679</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DetailsSpec/Domain Model Class details.xlsx
+++ b/DetailsSpec/Domain Model Class details.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7383B6-B80F-44FF-81E1-3E5785384EDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0F9C42-D84C-4942-A80A-C426281A6E1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parties" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="758">
   <si>
     <t>Description</t>
   </si>
@@ -384,9 +384,6 @@
     <t>วันที่สร้างรายการเลือกสินค้าคงเหลือ</t>
   </si>
   <si>
-    <t>แผนสินค้าคงเหลือที่ต้องการเลือกจากหลัง</t>
-  </si>
-  <si>
     <t>ปล่อยสินค้าขึ้นอยู่กับสินค้าที่เลือกไว้</t>
   </si>
   <si>
@@ -1032,9 +1029,6 @@
     <t>PickedFrom</t>
   </si>
   <si>
-    <t>part of</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
@@ -2302,6 +2296,9 @@
   </si>
   <si>
     <t>SPC.Invoices.Models</t>
+  </si>
+  <si>
+    <t>แผนสินค้าคงเหลือที่ต้องการเลือกจากคลัง</t>
   </si>
 </sst>
 </file>
@@ -2757,13 +2754,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2775,26 +2772,26 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" t="s">
         <v>302</v>
       </c>
-      <c r="C4" t="s">
-        <v>303</v>
-      </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" t="s">
         <v>304</v>
-      </c>
-      <c r="C5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
         <v>73</v>
@@ -2802,7 +2799,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
@@ -2810,18 +2807,18 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -2829,7 +2826,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
         <v>73</v>
@@ -2844,7 +2841,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -2852,13 +2849,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2869,7 +2866,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2881,7 +2878,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
@@ -2889,13 +2886,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
         <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2906,7 +2903,7 @@
         <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,18 +2915,18 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
         <v>73</v>
@@ -2944,57 +2941,57 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23" t="s">
         <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
         <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C27" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27" t="s">
         <v>359</v>
-      </c>
-      <c r="D27" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3006,13 +3003,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C29" t="s">
         <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3023,10 +3020,10 @@
         <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E30" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3038,13 +3035,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C32" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3056,16 +3053,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3077,16 +3074,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" t="s">
+        <v>363</v>
+      </c>
+      <c r="D36" t="s">
         <v>370</v>
       </c>
-      <c r="C36" t="s">
-        <v>365</v>
-      </c>
-      <c r="D36" t="s">
-        <v>372</v>
-      </c>
       <c r="E36" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3098,16 +3095,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E38" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3119,16 +3116,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C40" t="s">
+        <v>374</v>
+      </c>
+      <c r="D40" t="s">
         <v>376</v>
       </c>
-      <c r="D40" t="s">
-        <v>378</v>
-      </c>
       <c r="E40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3140,57 +3137,57 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C42" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E42" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D45" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C46" t="s">
+        <v>401</v>
+      </c>
+      <c r="D46" t="s">
+        <v>402</v>
+      </c>
+      <c r="E46" t="s">
         <v>403</v>
-      </c>
-      <c r="D46" t="s">
-        <v>404</v>
-      </c>
-      <c r="E46" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3202,16 +3199,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C48" t="s">
+        <v>407</v>
+      </c>
+      <c r="D48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E48" t="s">
         <v>409</v>
-      </c>
-      <c r="D48" t="s">
-        <v>410</v>
-      </c>
-      <c r="E48" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,13 +3220,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C50" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D50" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3241,13 +3238,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C52" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D52" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3258,7 +3255,7 @@
         <v>73</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3270,24 +3267,24 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C55" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D55" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
         <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3299,13 +3296,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D58" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3317,13 +3314,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C60" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D60" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3335,10 +3332,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C62" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3349,12 +3346,12 @@
         <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C64" t="s">
         <v>73</v>
@@ -3369,16 +3366,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C66" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D66" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E66" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3390,13 +3387,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C68" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D68" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3408,29 +3405,29 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C70" t="s">
         <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C72" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3442,41 +3439,41 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>415</v>
+      </c>
+      <c r="C74" t="s">
+        <v>416</v>
+      </c>
+      <c r="D74" t="s">
         <v>417</v>
-      </c>
-      <c r="C74" t="s">
-        <v>418</v>
-      </c>
-      <c r="D74" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C75" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D75" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E75" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C76" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D76" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E76" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3488,35 +3485,35 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C78" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D78" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C79" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E79" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C80" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E80" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3528,24 +3525,24 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C82" t="s">
         <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C83" t="s">
         <v>73</v>
       </c>
       <c r="E83" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3558,24 +3555,24 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C85" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E85" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C86" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E86" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3587,45 +3584,45 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C88" t="s">
         <v>76</v>
       </c>
       <c r="D88" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C89" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C90" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C91" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C92" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3637,18 +3634,18 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C94" t="s">
         <v>76</v>
       </c>
       <c r="D94" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C95" t="s">
         <v>73</v>
@@ -3656,7 +3653,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C96" t="s">
         <v>73</v>
@@ -3664,7 +3661,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C97" t="s">
         <v>73</v>
@@ -3672,7 +3669,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C98" t="s">
         <v>73</v>
@@ -3680,7 +3677,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C99" t="s">
         <v>73</v>
@@ -3688,7 +3685,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C100" t="s">
         <v>73</v>
@@ -3696,7 +3693,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C101" t="s">
         <v>73</v>
@@ -3704,7 +3701,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C102" t="s">
         <v>73</v>
@@ -3719,34 +3716,34 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C104" t="s">
         <v>76</v>
       </c>
       <c r="D104" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C105" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C106" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C107" t="s">
         <v>73</v>
@@ -3754,35 +3751,35 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C108" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C109" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D109" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
+        <v>443</v>
+      </c>
+      <c r="C110" t="s">
+        <v>444</v>
+      </c>
+      <c r="D110" t="s">
         <v>445</v>
-      </c>
-      <c r="C110" t="s">
-        <v>446</v>
-      </c>
-      <c r="D110" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3794,54 +3791,54 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C112" t="s">
         <v>76</v>
       </c>
       <c r="D112" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C113" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C114" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C115" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D115" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
+        <v>448</v>
+      </c>
+      <c r="C116" t="s">
+        <v>449</v>
+      </c>
+      <c r="D116" t="s">
         <v>450</v>
       </c>
-      <c r="C116" t="s">
-        <v>451</v>
-      </c>
-      <c r="D116" t="s">
-        <v>452</v>
-      </c>
       <c r="E116" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3853,24 +3850,24 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C118" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D118" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C119" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D119" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3882,18 +3879,18 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C121" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C122" t="s">
         <v>73</v>
@@ -3901,7 +3898,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C123" t="s">
         <v>73</v>
@@ -3909,7 +3906,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C124" t="s">
         <v>73</v>
@@ -3917,7 +3914,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C125" t="s">
         <v>73</v>
@@ -3925,7 +3922,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C126" t="s">
         <v>73</v>
@@ -3933,7 +3930,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C127" t="s">
         <v>73</v>
@@ -3941,7 +3938,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C128" t="s">
         <v>73</v>
@@ -3949,7 +3946,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C129" t="s">
         <v>73</v>
@@ -3964,21 +3961,21 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C131" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C132" t="s">
         <v>73</v>
       </c>
       <c r="D132" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3990,21 +3987,21 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C134" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C135" t="s">
         <v>73</v>
       </c>
       <c r="D135" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4016,7 +4013,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C137" t="s">
         <v>76</v>
@@ -4024,13 +4021,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C138" t="s">
         <v>73</v>
       </c>
       <c r="E138" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4042,29 +4039,29 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C140" t="s">
         <v>76</v>
       </c>
       <c r="D140" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C141" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C142" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4076,32 +4073,32 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C144" t="s">
         <v>76</v>
       </c>
       <c r="D144" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C145" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C146" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D146" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4113,13 +4110,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C148" t="s">
         <v>76</v>
       </c>
       <c r="D148" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4130,18 +4127,18 @@
         <v>73</v>
       </c>
       <c r="D149" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C150" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D150" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4153,13 +4150,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C152" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D152" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4170,7 +4167,7 @@
         <v>73</v>
       </c>
       <c r="D153" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4182,21 +4179,21 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C155" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C156" t="s">
         <v>73</v>
       </c>
       <c r="D156" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4208,13 +4205,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C158" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D158" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4225,7 +4222,7 @@
         <v>73</v>
       </c>
       <c r="D159" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,13 +4234,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C161" t="s">
         <v>76</v>
       </c>
       <c r="D161" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4254,18 +4251,18 @@
         <v>73</v>
       </c>
       <c r="D162" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C163" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D163" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4277,7 +4274,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C165" t="s">
         <v>76</v>
@@ -4285,51 +4282,51 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C166" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C167" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C168" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D168" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C169" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D169" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C170" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D170" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4341,7 +4338,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C172" t="s">
         <v>76</v>
@@ -4349,13 +4346,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C173" t="s">
         <v>73</v>
       </c>
       <c r="D173" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4366,10 +4363,10 @@
         <v>73</v>
       </c>
       <c r="D174" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E174" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4390,7 +4387,7 @@
   <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
@@ -4422,15 +4419,15 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>73</v>
@@ -4438,40 +4435,40 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" t="s">
         <v>494</v>
-      </c>
-      <c r="C4" t="s">
-        <v>381</v>
-      </c>
-      <c r="D4" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" t="s">
         <v>495</v>
-      </c>
-      <c r="C5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D5" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
@@ -4494,46 +4491,46 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
         <v>207</v>
-      </c>
-      <c r="C11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4545,13 +4542,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4563,51 +4560,51 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>73</v>
@@ -4615,24 +4612,24 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4644,13 +4641,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4670,16 +4667,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
         <v>183</v>
       </c>
-      <c r="C28" t="s">
-        <v>184</v>
-      </c>
       <c r="D28" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E28" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4691,16 +4688,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" t="s">
         <v>188</v>
-      </c>
-      <c r="E30" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4712,16 +4709,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" t="s">
         <v>190</v>
-      </c>
-      <c r="E32" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4733,57 +4730,57 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4795,24 +4792,24 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" t="s">
         <v>216</v>
-      </c>
-      <c r="D41" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4824,10 +4821,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4839,10 +4836,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C45" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4854,13 +4851,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4872,16 +4869,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D49" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4893,10 +4890,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4908,10 +4905,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4923,7 +4920,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s">
         <v>76</v>
@@ -4934,10 +4931,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4949,51 +4946,51 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C61" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C62" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" t="s">
         <v>224</v>
-      </c>
-      <c r="D62" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5005,13 +5002,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C64" t="s">
+        <v>229</v>
+      </c>
+      <c r="D64" t="s">
         <v>230</v>
-      </c>
-      <c r="D64" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5023,13 +5020,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5041,13 +5038,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D68" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -5059,13 +5056,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" t="s">
         <v>229</v>
       </c>
-      <c r="C70" t="s">
-        <v>230</v>
-      </c>
       <c r="D70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -5077,13 +5074,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C72" t="s">
         <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -5096,13 +5093,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D74" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -5114,16 +5111,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76" t="s">
         <v>234</v>
       </c>
-      <c r="C76" t="s">
-        <v>235</v>
-      </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -5135,13 +5132,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" t="s">
         <v>236</v>
-      </c>
-      <c r="C78" t="s">
-        <v>235</v>
-      </c>
-      <c r="D78" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -5153,38 +5150,38 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
         <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C82" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" t="s">
         <v>244</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>245</v>
-      </c>
-      <c r="E82" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5196,16 +5193,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" t="s">
         <v>241</v>
       </c>
-      <c r="C84" t="s">
-        <v>235</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>242</v>
-      </c>
-      <c r="E84" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5217,13 +5214,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" t="s">
         <v>247</v>
-      </c>
-      <c r="C86" t="s">
-        <v>235</v>
-      </c>
-      <c r="D86" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5235,13 +5232,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C88" t="s">
         <v>76</v>
       </c>
       <c r="D88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5258,7 +5255,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C91" t="s">
         <v>76</v>
@@ -5266,16 +5263,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s">
         <v>73</v>
       </c>
       <c r="D92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5286,7 +5283,7 @@
         <v>73</v>
       </c>
       <c r="D93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5298,16 +5295,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>292</v>
+      </c>
+      <c r="C95" t="s">
         <v>293</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>294</v>
       </c>
-      <c r="D95" t="s">
-        <v>295</v>
-      </c>
       <c r="E95" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5319,16 +5316,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D97" t="s">
+        <v>295</v>
+      </c>
+      <c r="E97" t="s">
         <v>296</v>
-      </c>
-      <c r="E97" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5340,40 +5337,40 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C99" t="s">
         <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C100" t="s">
         <v>72</v>
       </c>
       <c r="D100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C102" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5385,93 +5382,93 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>262</v>
+      </c>
+      <c r="C104" t="s">
+        <v>386</v>
+      </c>
+      <c r="D104" t="s">
         <v>263</v>
-      </c>
-      <c r="C104" t="s">
-        <v>388</v>
-      </c>
-      <c r="D104" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C105" t="s">
         <v>72</v>
       </c>
       <c r="D105" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D106" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C107" t="s">
+        <v>266</v>
+      </c>
+      <c r="D107" t="s">
         <v>267</v>
-      </c>
-      <c r="D107" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C109" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D109" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C110" t="s">
+        <v>271</v>
+      </c>
+      <c r="D110" t="s">
+        <v>273</v>
+      </c>
+      <c r="E110" t="s">
         <v>272</v>
-      </c>
-      <c r="D110" t="s">
-        <v>274</v>
-      </c>
-      <c r="E110" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C111" t="s">
         <v>72</v>
       </c>
       <c r="D111" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5483,18 +5480,18 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C113" t="s">
         <v>76</v>
       </c>
       <c r="D113" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C114" t="s">
         <v>71</v>
@@ -5510,10 +5507,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C116" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5525,7 +5522,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C118" t="s">
         <v>76</v>
@@ -5539,7 +5536,7 @@
         <v>73</v>
       </c>
       <c r="D119" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5551,13 +5548,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C121" t="s">
         <v>76</v>
       </c>
       <c r="D121" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5568,40 +5565,40 @@
         <v>72</v>
       </c>
       <c r="D122" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C123" t="s">
         <v>71</v>
       </c>
       <c r="D123" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C124" t="s">
         <v>73</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
+        <v>508</v>
+      </c>
+      <c r="C125" t="s">
+        <v>507</v>
+      </c>
+      <c r="D125" t="s">
         <v>510</v>
-      </c>
-      <c r="C125" t="s">
-        <v>509</v>
-      </c>
-      <c r="D125" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5613,7 +5610,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C127" t="s">
         <v>76</v>
@@ -5627,7 +5624,7 @@
         <v>73</v>
       </c>
       <c r="D128" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5639,46 +5636,46 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C130" t="s">
         <v>76</v>
       </c>
       <c r="D130" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C131" t="s">
         <v>73</v>
       </c>
       <c r="D131" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D132" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C133" t="s">
+        <v>518</v>
+      </c>
+      <c r="D133" t="s">
         <v>520</v>
-      </c>
-      <c r="D133" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5690,7 +5687,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C135" t="s">
         <v>76</v>
@@ -5704,18 +5701,18 @@
         <v>71</v>
       </c>
       <c r="D136" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C137" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D137" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5727,7 +5724,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C139" t="s">
         <v>76</v>
@@ -5735,16 +5732,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C140" t="s">
         <v>73</v>
       </c>
       <c r="D140" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E140" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5764,31 +5761,31 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C143" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C144" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C145" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C146" t="s">
         <v>72</v>
@@ -5796,7 +5793,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C147" t="s">
         <v>72</v>
@@ -5804,7 +5801,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C148" t="s">
         <v>73</v>
@@ -5812,34 +5809,34 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" t="s">
         <v>292</v>
-      </c>
-      <c r="C149" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C151" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C152" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5851,13 +5848,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>279</v>
+      </c>
+      <c r="C154" t="s">
         <v>280</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>281</v>
-      </c>
-      <c r="D154" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5869,13 +5866,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>282</v>
+      </c>
+      <c r="C156" t="s">
+        <v>280</v>
+      </c>
+      <c r="D156" t="s">
         <v>283</v>
-      </c>
-      <c r="C156" t="s">
-        <v>281</v>
-      </c>
-      <c r="D156" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5887,16 +5884,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C158" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D158" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E158" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5908,13 +5905,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C160" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D160" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5926,24 +5923,24 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C162" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D162" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C163" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D163" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5955,13 +5952,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C165" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D165" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5986,7 +5983,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -6018,35 +6015,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6058,13 +6055,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6075,79 +6072,79 @@
         <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>605</v>
+      </c>
+      <c r="C11" t="s">
+        <v>568</v>
+      </c>
+      <c r="D11" t="s">
         <v>607</v>
-      </c>
-      <c r="C11" t="s">
-        <v>570</v>
-      </c>
-      <c r="D11" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C13" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D13" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6159,10 +6156,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6173,79 +6170,79 @@
         <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C20" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C21" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C22" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D22" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6257,13 +6254,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D24" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6274,108 +6271,108 @@
         <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C26" t="s">
         <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E26" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C27" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D27" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E27" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D28" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E28" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C29" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D29" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E29" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>645</v>
+      </c>
+      <c r="C30" t="s">
+        <v>568</v>
+      </c>
+      <c r="D30" t="s">
+        <v>646</v>
+      </c>
+      <c r="E30" t="s">
         <v>647</v>
-      </c>
-      <c r="C30" t="s">
-        <v>570</v>
-      </c>
-      <c r="D30" t="s">
-        <v>648</v>
-      </c>
-      <c r="E30" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C31" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C32" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D32" t="s">
+        <v>650</v>
+      </c>
+      <c r="E32" t="s">
         <v>652</v>
-      </c>
-      <c r="E32" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -6387,7 +6384,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
@@ -6395,49 +6392,49 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C35" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D35" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E36" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" t="s">
         <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D38" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -6448,57 +6445,57 @@
         <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C41" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D41" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D42" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C43" t="s">
         <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E43" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -6509,29 +6506,29 @@
         <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C45" t="s">
         <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C46" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D46" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -6543,38 +6540,38 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>559</v>
+      </c>
+      <c r="C48" t="s">
+        <v>560</v>
+      </c>
+      <c r="D48" t="s">
         <v>561</v>
-      </c>
-      <c r="C48" t="s">
-        <v>562</v>
-      </c>
-      <c r="D48" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C49" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D49" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E49" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C50" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D50" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -6586,35 +6583,35 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C52" t="s">
+        <v>560</v>
+      </c>
+      <c r="D52" t="s">
         <v>562</v>
-      </c>
-      <c r="D52" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C53" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D53" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C54" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D54" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -6626,41 +6623,41 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C56" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D56" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>659</v>
+      </c>
+      <c r="C57" t="s">
+        <v>567</v>
+      </c>
+      <c r="D57" t="s">
+        <v>660</v>
+      </c>
+      <c r="E57" t="s">
         <v>661</v>
-      </c>
-      <c r="C57" t="s">
-        <v>569</v>
-      </c>
-      <c r="D57" t="s">
-        <v>662</v>
-      </c>
-      <c r="E57" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C58" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D58" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E58" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -6672,57 +6669,57 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C60" t="s">
         <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
       </c>
       <c r="D61" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C62" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D62" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C63" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D63" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C64" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D64" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -6734,7 +6731,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C66" t="s">
         <v>76</v>
@@ -6748,10 +6745,10 @@
         <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E67" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -6763,7 +6760,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -6777,40 +6774,40 @@
         <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C71" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D71" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C72" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D72" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C73" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D73" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -6822,24 +6819,24 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C76" t="s">
         <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6858,9 +6855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6895,7 +6892,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
@@ -6905,10 +6902,10 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
@@ -6918,13 +6915,13 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -6934,7 +6931,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -6970,10 +6967,10 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
@@ -7009,7 +7006,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>74</v>
@@ -7022,7 +7019,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>74</v>
@@ -7035,7 +7032,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>75</v>
@@ -7048,7 +7045,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>75</v>
@@ -7071,7 +7068,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -7090,7 +7087,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>20</v>
@@ -7109,7 +7106,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>21</v>
@@ -7129,7 +7126,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -7146,7 +7143,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>24</v>
@@ -7165,7 +7162,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>26</v>
@@ -7185,7 +7182,7 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>28</v>
@@ -7205,7 +7202,7 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>30</v>
@@ -7261,7 +7258,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>78</v>
@@ -7293,21 +7290,21 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>35</v>
@@ -7318,10 +7315,10 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -7362,13 +7359,13 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -7394,7 +7391,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>73</v>
@@ -7440,7 +7437,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>81</v>
@@ -7453,7 +7450,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>35</v>
@@ -7551,7 +7548,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>78</v>
@@ -7564,10 +7561,10 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>104</v>
@@ -7577,7 +7574,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>83</v>
@@ -7590,7 +7587,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>81</v>
@@ -7713,7 +7710,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>92</v>
@@ -7726,7 +7723,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>35</v>
@@ -7759,7 +7756,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>58</v>
@@ -7772,7 +7769,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>96</v>
@@ -7785,7 +7782,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>74</v>
@@ -7813,20 +7810,20 @@
         <v>76</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E83" s="3"/>
     </row>
@@ -7839,7 +7836,7 @@
         <v>73</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E84" s="3"/>
     </row>
@@ -7859,7 +7856,7 @@
         <v>76</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E86" s="3"/>
     </row>
@@ -7892,7 +7889,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>35</v>
@@ -7905,10 +7902,10 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>111</v>
@@ -7918,13 +7915,13 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E91" s="3"/>
     </row>
@@ -7944,7 +7941,7 @@
         <v>76</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>119</v>
+        <v>757</v>
       </c>
       <c r="E93" s="3"/>
     </row>
@@ -7982,7 +7979,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>114</v>
@@ -8008,26 +8005,26 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="3" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E100" s="3"/>
     </row>
@@ -8040,37 +8037,37 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>102</v>
@@ -8080,13 +8077,13 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E105" s="3"/>
     </row>
@@ -8099,27 +8096,27 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E108" s="3"/>
     </row>
@@ -8132,7 +8129,7 @@
         <v>73</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E109" s="3"/>
     </row>
@@ -8145,53 +8142,53 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E114" s="3"/>
     </row>
@@ -8201,127 +8198,127 @@
         <v>3</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C124" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="E124" s="3"/>
     </row>
@@ -8334,27 +8331,27 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E127" s="3"/>
     </row>
@@ -8378,14 +8375,14 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E130" s="3"/>
     </row>
@@ -8398,40 +8395,40 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E132" s="3"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E133" s="3"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E134" s="3"/>
     </row>
@@ -8485,7 +8482,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
@@ -8493,7 +8490,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -8501,13 +8498,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8520,64 +8517,64 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8588,18 +8585,18 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8612,69 +8609,69 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C17" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C18" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C20" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C21" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C23" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D23" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C25" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D25" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
@@ -8690,15 +8687,15 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C30" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
@@ -8706,23 +8703,23 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C32" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C33" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
@@ -8738,55 +8735,55 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C38" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C40" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C42" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C44" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C46" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C48" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C50" t="s">
         <v>76</v>
@@ -8794,63 +8791,63 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C52" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C54" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C56" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C59" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C61" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
@@ -8858,7 +8855,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -8866,7 +8863,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -8874,31 +8871,31 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C66" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C67" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C70" t="s">
         <v>76</v>
@@ -8914,60 +8911,60 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C75" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C78" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C79" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C81" t="s">
         <v>76</v>
@@ -8975,18 +8972,18 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -8999,15 +8996,15 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C85" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C87" t="s">
         <v>76</v>
@@ -9023,7 +9020,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C90" t="s">
         <v>76</v>
@@ -9031,23 +9028,23 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C91" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C92" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C94" t="s">
         <v>76</v>
@@ -9055,7 +9052,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C95" t="s">
         <v>72</v>
@@ -9063,31 +9060,31 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C96" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C97" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C98" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C100" t="s">
         <v>76</v>
@@ -9095,18 +9092,18 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C101" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C102" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -9119,7 +9116,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C105" t="s">
         <v>76</v>
@@ -9127,15 +9124,15 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C106" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C107" t="s">
         <v>73</v>
@@ -9143,15 +9140,15 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C108" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C109" t="s">
         <v>73</v>
@@ -9159,42 +9156,42 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C110" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C111" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C112" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C114" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C116" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -9206,8 +9203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84249ED9-281B-4B1B-B0B3-FF6EFD745BE4}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9218,7 +9215,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
@@ -9226,42 +9223,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/DetailsSpec/Domain Model Class details.xlsx
+++ b/DetailsSpec/Domain Model Class details.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0F9C42-D84C-4942-A80A-C426281A6E1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8ACEE7-8356-4B89-BBCF-8241E75A110E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="772">
   <si>
     <t>Description</t>
   </si>
@@ -363,9 +363,6 @@
     <t>ปล่อยสินค้าออกจากคลัง</t>
   </si>
   <si>
-    <t>doubel</t>
-  </si>
-  <si>
     <t>จำนวนสินค้าที่เลือก</t>
   </si>
   <si>
@@ -2299,6 +2296,51 @@
   </si>
   <si>
     <t>แผนสินค้าคงเหลือที่ต้องการเลือกจากคลัง</t>
+  </si>
+  <si>
+    <t>Effected</t>
+  </si>
+  <si>
+    <t>PaidFor</t>
+  </si>
+  <si>
+    <t>UsedToPay</t>
+  </si>
+  <si>
+    <t>บันทึกการชำระเงิน</t>
+  </si>
+  <si>
+    <t>รูปแบบการจ่าย</t>
+  </si>
+  <si>
+    <t>จำนวนเงินที่ชำระเข้ามา</t>
+  </si>
+  <si>
+    <t>หมายเลขอ้างอิงการชำระ</t>
+  </si>
+  <si>
+    <t>วันที่ชำระ</t>
+  </si>
+  <si>
+    <t>รับเงิน กรณีขายสินค้า</t>
+  </si>
+  <si>
+    <t>จ่ายเงิน กรณีซื้อสินค้า</t>
+  </si>
+  <si>
+    <t>มีผลกับบัญชี</t>
+  </si>
+  <si>
+    <t>จำนวนเงินที่นำไปใช้กับใบแจ้งหนี้</t>
+  </si>
+  <si>
+    <t>จ่ายสำหรับใบแจ้งหนี้</t>
+  </si>
+  <si>
+    <t>การชำระเงินที่ใช้</t>
+  </si>
+  <si>
+    <t>Cash, CreditCard, BankTransfer</t>
   </si>
 </sst>
 </file>
@@ -2754,13 +2796,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2772,26 +2814,26 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" t="s">
         <v>301</v>
       </c>
-      <c r="C4" t="s">
-        <v>302</v>
-      </c>
       <c r="D4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" t="s">
         <v>303</v>
-      </c>
-      <c r="C5" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
         <v>73</v>
@@ -2799,7 +2841,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
@@ -2807,18 +2849,18 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -2826,7 +2868,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
         <v>73</v>
@@ -2841,7 +2883,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -2849,13 +2891,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2866,7 +2908,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2878,7 +2920,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
@@ -2886,13 +2928,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
         <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2903,7 +2945,7 @@
         <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2915,18 +2957,18 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
         <v>73</v>
@@ -2941,57 +2983,57 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C23" t="s">
         <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
         <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3003,13 +3045,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C29" t="s">
         <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3020,10 +3062,10 @@
         <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3035,13 +3077,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" t="s">
         <v>364</v>
       </c>
-      <c r="C32" t="s">
-        <v>365</v>
-      </c>
       <c r="D32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3053,16 +3095,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C34" t="s">
+        <v>362</v>
+      </c>
+      <c r="D34" t="s">
+        <v>368</v>
+      </c>
+      <c r="E34" t="s">
         <v>366</v>
-      </c>
-      <c r="C34" t="s">
-        <v>363</v>
-      </c>
-      <c r="D34" t="s">
-        <v>369</v>
-      </c>
-      <c r="E34" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3074,16 +3116,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,16 +3137,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" t="s">
+        <v>364</v>
+      </c>
+      <c r="D38" t="s">
         <v>371</v>
       </c>
-      <c r="C38" t="s">
-        <v>365</v>
-      </c>
-      <c r="D38" t="s">
-        <v>372</v>
-      </c>
       <c r="E38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3116,16 +3158,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>372</v>
+      </c>
+      <c r="C40" t="s">
         <v>373</v>
       </c>
-      <c r="C40" t="s">
-        <v>374</v>
-      </c>
       <c r="D40" t="s">
+        <v>375</v>
+      </c>
+      <c r="E40" t="s">
         <v>376</v>
-      </c>
-      <c r="E40" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3137,57 +3179,57 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D46" t="s">
         <v>401</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>402</v>
-      </c>
-      <c r="E46" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3199,16 +3241,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C48" t="s">
+        <v>406</v>
+      </c>
+      <c r="D48" t="s">
         <v>407</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>408</v>
-      </c>
-      <c r="E48" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3220,13 +3262,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>388</v>
+      </c>
+      <c r="C50" t="s">
         <v>389</v>
       </c>
-      <c r="C50" t="s">
-        <v>390</v>
-      </c>
       <c r="D50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3238,13 +3280,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>390</v>
+      </c>
+      <c r="C52" t="s">
         <v>391</v>
       </c>
-      <c r="C52" t="s">
-        <v>392</v>
-      </c>
       <c r="D52" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3255,7 +3297,7 @@
         <v>73</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3267,24 +3309,24 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>392</v>
+      </c>
+      <c r="C55" t="s">
+        <v>389</v>
+      </c>
+      <c r="D55" t="s">
         <v>393</v>
-      </c>
-      <c r="C55" t="s">
-        <v>390</v>
-      </c>
-      <c r="D55" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
         <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3296,13 +3338,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3314,13 +3356,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D60" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3332,10 +3374,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C62" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3346,12 +3388,12 @@
         <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C64" t="s">
         <v>73</v>
@@ -3366,16 +3408,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>403</v>
+      </c>
+      <c r="C66" t="s">
         <v>404</v>
       </c>
-      <c r="C66" t="s">
-        <v>405</v>
-      </c>
       <c r="D66" t="s">
+        <v>411</v>
+      </c>
+      <c r="E66" t="s">
         <v>412</v>
-      </c>
-      <c r="E66" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3387,13 +3429,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>409</v>
+      </c>
+      <c r="C68" t="s">
+        <v>404</v>
+      </c>
+      <c r="D68" t="s">
         <v>410</v>
-      </c>
-      <c r="C68" t="s">
-        <v>405</v>
-      </c>
-      <c r="D68" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3405,29 +3447,29 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C70" t="s">
         <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3439,41 +3481,41 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>414</v>
+      </c>
+      <c r="C74" t="s">
         <v>415</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>416</v>
-      </c>
-      <c r="D74" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D75" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E75" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D76" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E76" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3485,35 +3527,35 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>417</v>
+      </c>
+      <c r="C78" t="s">
+        <v>415</v>
+      </c>
+      <c r="D78" t="s">
         <v>418</v>
-      </c>
-      <c r="C78" t="s">
-        <v>416</v>
-      </c>
-      <c r="D78" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E79" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E80" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3525,24 +3567,24 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C82" t="s">
         <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
         <v>73</v>
       </c>
       <c r="E83" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3555,24 +3597,24 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C85" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E85" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C86" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E86" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3584,45 +3626,45 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C88" t="s">
         <v>76</v>
       </c>
       <c r="D88" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C90" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C92" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3634,18 +3676,18 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C94" t="s">
         <v>76</v>
       </c>
       <c r="D94" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C95" t="s">
         <v>73</v>
@@ -3653,7 +3695,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C96" t="s">
         <v>73</v>
@@ -3661,7 +3703,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C97" t="s">
         <v>73</v>
@@ -3669,7 +3711,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C98" t="s">
         <v>73</v>
@@ -3677,7 +3719,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C99" t="s">
         <v>73</v>
@@ -3685,7 +3727,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C100" t="s">
         <v>73</v>
@@ -3693,7 +3735,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C101" t="s">
         <v>73</v>
@@ -3701,7 +3743,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C102" t="s">
         <v>73</v>
@@ -3716,34 +3758,34 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C104" t="s">
         <v>76</v>
       </c>
       <c r="D104" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C105" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C107" t="s">
         <v>73</v>
@@ -3751,35 +3793,35 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
+        <v>439</v>
+      </c>
+      <c r="C108" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" t="s">
         <v>440</v>
-      </c>
-      <c r="C108" t="s">
-        <v>300</v>
-      </c>
-      <c r="D108" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C109" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D109" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
+        <v>442</v>
+      </c>
+      <c r="C110" t="s">
         <v>443</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>444</v>
-      </c>
-      <c r="D110" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3791,54 +3833,54 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C112" t="s">
         <v>76</v>
       </c>
       <c r="D112" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C113" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C114" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C115" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D115" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
+        <v>447</v>
+      </c>
+      <c r="C116" t="s">
         <v>448</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>449</v>
       </c>
-      <c r="D116" t="s">
-        <v>450</v>
-      </c>
       <c r="E116" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3850,24 +3892,24 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D118" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C119" t="s">
+        <v>455</v>
+      </c>
+      <c r="D119" t="s">
         <v>456</v>
-      </c>
-      <c r="D119" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3879,18 +3921,18 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C121" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C122" t="s">
         <v>73</v>
@@ -3898,7 +3940,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C123" t="s">
         <v>73</v>
@@ -3906,7 +3948,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C124" t="s">
         <v>73</v>
@@ -3914,7 +3956,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C125" t="s">
         <v>73</v>
@@ -3922,7 +3964,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C126" t="s">
         <v>73</v>
@@ -3930,7 +3972,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C127" t="s">
         <v>73</v>
@@ -3938,7 +3980,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C128" t="s">
         <v>73</v>
@@ -3946,7 +3988,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C129" t="s">
         <v>73</v>
@@ -3961,21 +4003,21 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C131" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C132" t="s">
         <v>73</v>
       </c>
       <c r="D132" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3987,21 +4029,21 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C134" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C135" t="s">
         <v>73</v>
       </c>
       <c r="D135" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4013,7 +4055,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C137" t="s">
         <v>76</v>
@@ -4021,13 +4063,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C138" t="s">
         <v>73</v>
       </c>
       <c r="E138" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4039,29 +4081,29 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C140" t="s">
         <v>76</v>
       </c>
       <c r="D140" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C141" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C142" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4073,32 +4115,32 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C144" t="s">
         <v>76</v>
       </c>
       <c r="D144" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
+        <v>442</v>
+      </c>
+      <c r="C145" t="s">
         <v>443</v>
-      </c>
-      <c r="C145" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
+        <v>465</v>
+      </c>
+      <c r="C146" t="s">
+        <v>463</v>
+      </c>
+      <c r="D146" t="s">
         <v>466</v>
-      </c>
-      <c r="C146" t="s">
-        <v>464</v>
-      </c>
-      <c r="D146" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4110,13 +4152,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C148" t="s">
         <v>76</v>
       </c>
       <c r="D148" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4127,18 +4169,18 @@
         <v>73</v>
       </c>
       <c r="D149" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C150" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D150" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4150,13 +4192,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>467</v>
+      </c>
+      <c r="C152" t="s">
         <v>468</v>
       </c>
-      <c r="C152" t="s">
-        <v>469</v>
-      </c>
       <c r="D152" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4167,7 +4209,7 @@
         <v>73</v>
       </c>
       <c r="D153" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4179,21 +4221,21 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C155" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C156" t="s">
         <v>73</v>
       </c>
       <c r="D156" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4205,13 +4247,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>470</v>
+      </c>
+      <c r="C158" t="s">
+        <v>468</v>
+      </c>
+      <c r="D158" t="s">
         <v>471</v>
-      </c>
-      <c r="C158" t="s">
-        <v>469</v>
-      </c>
-      <c r="D158" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4222,7 +4264,7 @@
         <v>73</v>
       </c>
       <c r="D159" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4234,13 +4276,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C161" t="s">
         <v>76</v>
       </c>
       <c r="D161" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4251,18 +4293,18 @@
         <v>73</v>
       </c>
       <c r="D162" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C163" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D163" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4274,7 +4316,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C165" t="s">
         <v>76</v>
@@ -4282,51 +4324,51 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C166" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C167" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C168" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D168" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C169" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D169" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C170" t="s">
+        <v>479</v>
+      </c>
+      <c r="D170" t="s">
         <v>480</v>
-      </c>
-      <c r="D170" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4338,7 +4380,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C172" t="s">
         <v>76</v>
@@ -4346,13 +4388,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C173" t="s">
         <v>73</v>
       </c>
       <c r="D173" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4363,10 +4405,10 @@
         <v>73</v>
       </c>
       <c r="D174" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E174" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4387,7 +4429,7 @@
   <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
@@ -4419,15 +4461,15 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>73</v>
@@ -4435,40 +4477,40 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" t="s">
         <v>496</v>
-      </c>
-      <c r="C6" t="s">
-        <v>379</v>
-      </c>
-      <c r="D6" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
@@ -4491,46 +4533,46 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" t="s">
         <v>206</v>
-      </c>
-      <c r="C11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4542,13 +4584,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4560,51 +4602,51 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>73</v>
@@ -4612,24 +4654,24 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4641,13 +4683,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4667,16 +4709,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" t="s">
         <v>182</v>
       </c>
-      <c r="C28" t="s">
-        <v>183</v>
-      </c>
       <c r="D28" t="s">
+        <v>632</v>
+      </c>
+      <c r="E28" t="s">
         <v>633</v>
-      </c>
-      <c r="E28" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4688,16 +4730,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" t="s">
         <v>187</v>
-      </c>
-      <c r="E30" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4709,16 +4751,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" t="s">
         <v>189</v>
-      </c>
-      <c r="E32" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4730,57 +4772,57 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4792,24 +4834,24 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" t="s">
         <v>215</v>
-      </c>
-      <c r="D41" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4821,10 +4863,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4836,10 +4878,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4851,13 +4893,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4869,16 +4911,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4890,10 +4932,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4905,10 +4947,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C53" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4920,7 +4962,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C55" t="s">
         <v>76</v>
@@ -4931,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4946,51 +4988,51 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C62" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" t="s">
         <v>223</v>
-      </c>
-      <c r="D62" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5002,13 +5044,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" t="s">
         <v>229</v>
-      </c>
-      <c r="D64" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5020,13 +5062,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5038,13 +5080,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D68" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -5056,13 +5098,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" t="s">
         <v>228</v>
       </c>
-      <c r="C70" t="s">
-        <v>229</v>
-      </c>
       <c r="D70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -5074,13 +5116,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
         <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -5093,13 +5135,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" t="s">
         <v>343</v>
-      </c>
-      <c r="C74" t="s">
-        <v>253</v>
-      </c>
-      <c r="D74" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -5111,16 +5153,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" t="s">
         <v>233</v>
       </c>
-      <c r="C76" t="s">
-        <v>234</v>
-      </c>
       <c r="D76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -5132,13 +5174,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" t="s">
+        <v>233</v>
+      </c>
+      <c r="D78" t="s">
         <v>235</v>
-      </c>
-      <c r="C78" t="s">
-        <v>234</v>
-      </c>
-      <c r="D78" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -5150,38 +5192,38 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C81" t="s">
         <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C82" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" t="s">
         <v>243</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>244</v>
-      </c>
-      <c r="E82" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5193,16 +5235,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84" t="s">
         <v>240</v>
       </c>
-      <c r="C84" t="s">
-        <v>234</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>241</v>
-      </c>
-      <c r="E84" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5214,13 +5256,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>245</v>
+      </c>
+      <c r="C86" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" t="s">
         <v>246</v>
-      </c>
-      <c r="C86" t="s">
-        <v>234</v>
-      </c>
-      <c r="D86" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5232,13 +5274,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C88" t="s">
         <v>76</v>
       </c>
       <c r="D88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5255,7 +5297,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C91" t="s">
         <v>76</v>
@@ -5263,16 +5305,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C92" t="s">
         <v>73</v>
       </c>
       <c r="D92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5283,7 +5325,7 @@
         <v>73</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5295,16 +5337,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" t="s">
         <v>292</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>293</v>
       </c>
-      <c r="D95" t="s">
-        <v>294</v>
-      </c>
       <c r="E95" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5316,16 +5358,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D97" t="s">
+        <v>294</v>
+      </c>
+      <c r="E97" t="s">
         <v>295</v>
-      </c>
-      <c r="E97" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5337,40 +5379,40 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C99" t="s">
         <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C100" t="s">
         <v>72</v>
       </c>
       <c r="D100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C102" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5382,93 +5424,93 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" t="s">
+        <v>385</v>
+      </c>
+      <c r="D104" t="s">
         <v>262</v>
-      </c>
-      <c r="C104" t="s">
-        <v>386</v>
-      </c>
-      <c r="D104" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C105" t="s">
         <v>72</v>
       </c>
       <c r="D105" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C107" t="s">
+        <v>265</v>
+      </c>
+      <c r="D107" t="s">
         <v>266</v>
-      </c>
-      <c r="D107" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C108" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D108" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C109" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D109" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C110" t="s">
+        <v>270</v>
+      </c>
+      <c r="D110" t="s">
+        <v>272</v>
+      </c>
+      <c r="E110" t="s">
         <v>271</v>
-      </c>
-      <c r="D110" t="s">
-        <v>273</v>
-      </c>
-      <c r="E110" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C111" t="s">
         <v>72</v>
       </c>
       <c r="D111" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5480,18 +5522,18 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
         <v>76</v>
       </c>
       <c r="D113" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C114" t="s">
         <v>71</v>
@@ -5507,10 +5549,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C116" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5522,7 +5564,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C118" t="s">
         <v>76</v>
@@ -5536,7 +5578,7 @@
         <v>73</v>
       </c>
       <c r="D119" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5548,13 +5590,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C121" t="s">
         <v>76</v>
       </c>
       <c r="D121" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5565,40 +5607,40 @@
         <v>72</v>
       </c>
       <c r="D122" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C123" t="s">
         <v>71</v>
       </c>
       <c r="D123" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C124" t="s">
         <v>73</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C125" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D125" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5610,7 +5652,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C127" t="s">
         <v>76</v>
@@ -5624,7 +5666,7 @@
         <v>73</v>
       </c>
       <c r="D128" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5636,46 +5678,46 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C130" t="s">
         <v>76</v>
       </c>
       <c r="D130" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C131" t="s">
         <v>73</v>
       </c>
       <c r="D131" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C132" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D132" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
+        <v>518</v>
+      </c>
+      <c r="C133" t="s">
+        <v>517</v>
+      </c>
+      <c r="D133" t="s">
         <v>519</v>
-      </c>
-      <c r="C133" t="s">
-        <v>518</v>
-      </c>
-      <c r="D133" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5687,7 +5729,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C135" t="s">
         <v>76</v>
@@ -5701,18 +5743,18 @@
         <v>71</v>
       </c>
       <c r="D136" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
+        <v>518</v>
+      </c>
+      <c r="C137" t="s">
+        <v>521</v>
+      </c>
+      <c r="D137" t="s">
         <v>519</v>
-      </c>
-      <c r="C137" t="s">
-        <v>522</v>
-      </c>
-      <c r="D137" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5724,7 +5766,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C139" t="s">
         <v>76</v>
@@ -5732,16 +5774,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C140" t="s">
         <v>73</v>
       </c>
       <c r="D140" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E140" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5761,31 +5803,31 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C143" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C144" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C145" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C146" t="s">
         <v>72</v>
@@ -5793,7 +5835,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C147" t="s">
         <v>72</v>
@@ -5801,7 +5843,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C148" t="s">
         <v>73</v>
@@ -5809,34 +5851,34 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" t="s">
         <v>291</v>
-      </c>
-      <c r="C149" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C151" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C152" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5848,13 +5890,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>278</v>
+      </c>
+      <c r="C154" t="s">
         <v>279</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>280</v>
-      </c>
-      <c r="D154" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5866,13 +5908,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>281</v>
+      </c>
+      <c r="C156" t="s">
+        <v>279</v>
+      </c>
+      <c r="D156" t="s">
         <v>282</v>
-      </c>
-      <c r="C156" t="s">
-        <v>280</v>
-      </c>
-      <c r="D156" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5884,16 +5926,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C158" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D158" t="s">
+        <v>524</v>
+      </c>
+      <c r="E158" t="s">
         <v>525</v>
-      </c>
-      <c r="E158" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5905,13 +5947,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C160" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D160" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5923,24 +5965,24 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C162" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D162" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C163" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D163" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5952,13 +5994,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C165" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D165" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5983,8 +6025,8 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6015,35 +6057,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" t="s">
         <v>532</v>
-      </c>
-      <c r="C2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6055,13 +6097,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" t="s">
         <v>537</v>
       </c>
-      <c r="C6" t="s">
-        <v>538</v>
-      </c>
       <c r="D6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6072,79 +6114,79 @@
         <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6156,10 +6198,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6170,79 +6212,79 @@
         <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D21" t="s">
+        <v>587</v>
+      </c>
+      <c r="E21" t="s">
         <v>588</v>
-      </c>
-      <c r="E21" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6254,13 +6296,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>636</v>
+      </c>
+      <c r="C24" t="s">
+        <v>537</v>
+      </c>
+      <c r="D24" t="s">
         <v>637</v>
-      </c>
-      <c r="C24" t="s">
-        <v>538</v>
-      </c>
-      <c r="D24" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6271,108 +6313,108 @@
         <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C26" t="s">
         <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>655</v>
+      </c>
+      <c r="C27" t="s">
+        <v>566</v>
+      </c>
+      <c r="D27" t="s">
         <v>656</v>
       </c>
-      <c r="C27" t="s">
-        <v>567</v>
-      </c>
-      <c r="D27" t="s">
-        <v>657</v>
-      </c>
       <c r="E27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>644</v>
+      </c>
+      <c r="C30" t="s">
+        <v>567</v>
+      </c>
+      <c r="D30" t="s">
         <v>645</v>
       </c>
-      <c r="C30" t="s">
-        <v>568</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>646</v>
-      </c>
-      <c r="E30" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D31" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E31" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>650</v>
+      </c>
+      <c r="C32" t="s">
+        <v>567</v>
+      </c>
+      <c r="D32" t="s">
+        <v>649</v>
+      </c>
+      <c r="E32" t="s">
         <v>651</v>
-      </c>
-      <c r="C32" t="s">
-        <v>568</v>
-      </c>
-      <c r="D32" t="s">
-        <v>650</v>
-      </c>
-      <c r="E32" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -6384,7 +6426,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
@@ -6392,49 +6434,49 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E36" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C37" t="s">
         <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -6445,57 +6487,57 @@
         <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C41" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D41" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E42" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C43" t="s">
         <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -6506,29 +6548,29 @@
         <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
         <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C46" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D46" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -6540,38 +6582,38 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>558</v>
+      </c>
+      <c r="C48" t="s">
         <v>559</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>560</v>
-      </c>
-      <c r="D48" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C49" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D49" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E49" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C50" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D50" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -6583,35 +6625,35 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C52" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D52" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C53" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D53" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C54" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D54" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -6623,41 +6665,41 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D56" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>658</v>
+      </c>
+      <c r="C57" t="s">
+        <v>566</v>
+      </c>
+      <c r="D57" t="s">
         <v>659</v>
       </c>
-      <c r="C57" t="s">
-        <v>567</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>660</v>
-      </c>
-      <c r="E57" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C58" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D58" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E58" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -6669,57 +6711,57 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C60" t="s">
         <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
       </c>
       <c r="D61" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C62" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D62" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>573</v>
+      </c>
+      <c r="C63" t="s">
+        <v>570</v>
+      </c>
+      <c r="D63" t="s">
         <v>574</v>
-      </c>
-      <c r="C63" t="s">
-        <v>571</v>
-      </c>
-      <c r="D63" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C64" t="s">
+        <v>575</v>
+      </c>
+      <c r="D64" t="s">
         <v>576</v>
-      </c>
-      <c r="D64" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -6731,7 +6773,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C66" t="s">
         <v>76</v>
@@ -6745,10 +6787,10 @@
         <v>73</v>
       </c>
       <c r="D67" t="s">
+        <v>578</v>
+      </c>
+      <c r="E67" t="s">
         <v>579</v>
-      </c>
-      <c r="E67" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -6760,7 +6802,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -6774,40 +6816,40 @@
         <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>612</v>
+      </c>
+      <c r="C71" t="s">
+        <v>541</v>
+      </c>
+      <c r="D71" t="s">
         <v>613</v>
-      </c>
-      <c r="C71" t="s">
-        <v>542</v>
-      </c>
-      <c r="D71" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C72" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D72" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C73" t="s">
+        <v>614</v>
+      </c>
+      <c r="D73" t="s">
         <v>615</v>
-      </c>
-      <c r="D73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -6819,24 +6861,24 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C76" t="s">
         <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6856,8 +6898,8 @@
   <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6892,7 +6934,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
@@ -6902,10 +6944,10 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
@@ -6915,13 +6957,13 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -6931,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -6967,10 +7009,10 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
@@ -7006,7 +7048,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>74</v>
@@ -7019,7 +7061,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>74</v>
@@ -7032,7 +7074,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>75</v>
@@ -7045,7 +7087,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>75</v>
@@ -7068,7 +7110,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -7087,7 +7129,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>20</v>
@@ -7106,7 +7148,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>21</v>
@@ -7126,7 +7168,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -7143,7 +7185,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>24</v>
@@ -7162,7 +7204,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>26</v>
@@ -7182,7 +7224,7 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>28</v>
@@ -7202,7 +7244,7 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>30</v>
@@ -7258,7 +7300,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>78</v>
@@ -7290,21 +7332,21 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>35</v>
@@ -7315,10 +7357,10 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -7359,13 +7401,13 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -7391,7 +7433,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>73</v>
@@ -7437,7 +7479,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>81</v>
@@ -7450,7 +7492,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>35</v>
@@ -7548,7 +7590,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>78</v>
@@ -7561,10 +7603,10 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>104</v>
@@ -7574,7 +7616,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>83</v>
@@ -7587,7 +7629,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>81</v>
@@ -7710,7 +7752,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>92</v>
@@ -7723,7 +7765,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>35</v>
@@ -7756,7 +7798,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>58</v>
@@ -7769,7 +7811,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>96</v>
@@ -7782,7 +7824,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>74</v>
@@ -7810,20 +7852,20 @@
         <v>76</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E83" s="3"/>
     </row>
@@ -7836,7 +7878,7 @@
         <v>73</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E84" s="3"/>
     </row>
@@ -7849,14 +7891,14 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E86" s="3"/>
     </row>
@@ -7889,7 +7931,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>35</v>
@@ -7902,10 +7944,10 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>111</v>
@@ -7915,13 +7957,13 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E91" s="3"/>
     </row>
@@ -7934,14 +7976,14 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E93" s="3"/>
     </row>
@@ -7952,7 +7994,7 @@
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E94" s="3"/>
     </row>
@@ -7972,20 +8014,20 @@
         <v>76</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E97" s="3"/>
     </row>
@@ -7995,36 +8037,36 @@
         <v>39</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E100" s="3"/>
     </row>
@@ -8037,37 +8079,37 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>102</v>
@@ -8077,13 +8119,13 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E105" s="3"/>
     </row>
@@ -8096,27 +8138,27 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E108" s="3"/>
     </row>
@@ -8129,7 +8171,7 @@
         <v>73</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E109" s="3"/>
     </row>
@@ -8142,53 +8184,53 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E114" s="3"/>
     </row>
@@ -8198,127 +8240,127 @@
         <v>3</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C124" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="E124" s="3"/>
     </row>
@@ -8331,27 +8373,27 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E127" s="3"/>
     </row>
@@ -8375,14 +8417,14 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E130" s="3"/>
     </row>
@@ -8395,40 +8437,40 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E132" s="3"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E133" s="3"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E134" s="3"/>
     </row>
@@ -8447,11 +8489,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="A126:E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8482,7 +8524,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
@@ -8490,7 +8532,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -8498,13 +8540,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8517,64 +8559,71 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C10" t="s">
         <v>726</v>
       </c>
-      <c r="C10" t="s">
-        <v>727</v>
-      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8585,18 +8634,18 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8607,77 +8656,98 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>691</v>
+      </c>
+      <c r="C18" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>692</v>
       </c>
-      <c r="C18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>693</v>
       </c>
-      <c r="C19" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C21" t="s">
         <v>694</v>
       </c>
-      <c r="C20" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>349</v>
-      </c>
-      <c r="C21" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>684</v>
+      </c>
+      <c r="C23" t="s">
         <v>685</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>686</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C25" t="s">
+        <v>685</v>
+      </c>
+      <c r="D25" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>687</v>
-      </c>
-      <c r="C25" t="s">
-        <v>686</v>
-      </c>
-      <c r="D25" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>688</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -8685,47 +8755,61 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C30" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>709</v>
+      </c>
+      <c r="C32" t="s">
         <v>710</v>
       </c>
-      <c r="C32" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C33" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -8733,175 +8817,266 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>702</v>
+      </c>
+      <c r="C38" t="s">
         <v>703</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>705</v>
       </c>
-      <c r="C40" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>706</v>
       </c>
-      <c r="C42" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>707</v>
       </c>
-      <c r="C44" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>708</v>
       </c>
-      <c r="C46" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>709</v>
-      </c>
       <c r="C48" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>711</v>
+      </c>
+      <c r="C52" t="s">
         <v>712</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>689</v>
+      </c>
+      <c r="C53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>690</v>
-      </c>
-      <c r="C53" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>714</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>714</v>
+      </c>
+      <c r="C56" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>689</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>715</v>
-      </c>
-      <c r="C56" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>690</v>
-      </c>
-      <c r="C57" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>716</v>
       </c>
-      <c r="C59" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>717</v>
-      </c>
       <c r="C61" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>720</v>
+      </c>
+      <c r="C66" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" t="s">
         <v>721</v>
       </c>
-      <c r="C66" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>328</v>
-      </c>
-      <c r="C67" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C68" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -8909,84 +9084,98 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>177</v>
-      </c>
-      <c r="C74" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>221</v>
-      </c>
-      <c r="C75" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="C76" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>327</v>
+      </c>
+      <c r="C77" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78" t="s">
         <v>730</v>
       </c>
-      <c r="C76" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>328</v>
-      </c>
-      <c r="C77" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>321</v>
-      </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>732</v>
-      </c>
       <c r="C79" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C81" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -8994,23 +9183,30 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C85" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C87" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -9018,95 +9214,116 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C90" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
+        <v>734</v>
+      </c>
+      <c r="C91" t="s">
         <v>735</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>737</v>
-      </c>
-      <c r="C92" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>738</v>
       </c>
       <c r="C94" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C95" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C96" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>739</v>
+      </c>
+      <c r="C97" t="s">
         <v>740</v>
       </c>
-      <c r="C97" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C98" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C100" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C101" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>0</v>
       </c>
@@ -9114,85 +9331,219 @@
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C105" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C106" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="D106" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C107" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C108" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+      <c r="D108" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C109" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
+        <v>747</v>
+      </c>
+      <c r="C110" t="s">
         <v>748</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+      <c r="C111" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>750</v>
       </c>
-      <c r="C111" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>751</v>
-      </c>
       <c r="C112" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>744</v>
+      </c>
+      <c r="C114" t="s">
         <v>745</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>747</v>
-      </c>
       <c r="C116" t="s">
-        <v>746</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="D116" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>737</v>
+      </c>
+      <c r="C118" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>738</v>
+      </c>
+      <c r="C119" t="s">
+        <v>72</v>
+      </c>
+      <c r="D119" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>757</v>
+      </c>
+      <c r="C120" t="s">
+        <v>726</v>
+      </c>
+      <c r="D120" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>758</v>
+      </c>
+      <c r="C121" t="s">
+        <v>694</v>
+      </c>
+      <c r="D121" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>759</v>
+      </c>
+      <c r="C122" t="s">
+        <v>740</v>
+      </c>
+      <c r="D122" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>748</v>
+      </c>
+      <c r="C124" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>73</v>
+      </c>
+      <c r="D125" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9215,7 +9566,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
@@ -9223,42 +9574,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/DetailsSpec/Domain Model Class details.xlsx
+++ b/DetailsSpec/Domain Model Class details.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8ACEE7-8356-4B89-BBCF-8241E75A110E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1E349-89F2-4C5B-93C1-212F76C93FB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parties" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="770">
   <si>
     <t>Description</t>
   </si>
@@ -558,12 +558,6 @@
     <t>EffectiveDate</t>
   </si>
   <si>
-    <t>EffectiveDate?</t>
-  </si>
-  <si>
-    <t>UntilDate?</t>
-  </si>
-  <si>
     <t>PrimaryFlag</t>
   </si>
   <si>
@@ -951,12 +945,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>BirthDate?</t>
-  </si>
-  <si>
-    <t>CitizenID</t>
-  </si>
-  <si>
     <t>บุคคล หรือ องค์กร</t>
   </si>
   <si>
@@ -2341,6 +2329,12 @@
   </si>
   <si>
     <t>Cash, CreditCard, BankTransfer</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>CitizenId</t>
   </si>
 </sst>
 </file>
@@ -2763,9 +2757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2795,14 +2789,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>299</v>
+      <c r="A2" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2814,26 +2808,26 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>73</v>
@@ -2841,7 +2835,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
@@ -2849,26 +2843,26 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>308</v>
+        <v>768</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>309</v>
+        <v>769</v>
       </c>
       <c r="C10" t="s">
         <v>73</v>
@@ -2883,7 +2877,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -2897,7 +2891,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2908,7 +2902,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2920,7 +2914,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
@@ -2934,7 +2928,7 @@
         <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2945,7 +2939,7 @@
         <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2957,13 +2951,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2983,57 +2977,57 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
         <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>374</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>374</v>
       </c>
       <c r="D25" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D26" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D27" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3045,13 +3039,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C29" t="s">
         <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3062,10 +3056,10 @@
         <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E30" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3077,13 +3071,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C32" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D32" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,16 +3089,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C34" t="s">
+        <v>358</v>
+      </c>
+      <c r="D34" t="s">
+        <v>364</v>
+      </c>
+      <c r="E34" t="s">
         <v>362</v>
-      </c>
-      <c r="D34" t="s">
-        <v>368</v>
-      </c>
-      <c r="E34" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3116,16 +3110,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C36" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D36" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E36" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3137,16 +3131,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C38" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D38" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E38" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3158,16 +3152,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" t="s">
+        <v>369</v>
+      </c>
+      <c r="D40" t="s">
+        <v>371</v>
+      </c>
+      <c r="E40" t="s">
         <v>372</v>
-      </c>
-      <c r="C40" t="s">
-        <v>373</v>
-      </c>
-      <c r="D40" t="s">
-        <v>375</v>
-      </c>
-      <c r="E40" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3179,16 +3173,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C42" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D42" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E42" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3196,40 +3190,40 @@
         <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C44" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C46" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D46" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E46" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3241,16 +3235,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C48" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D48" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E48" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3262,13 +3256,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C50" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D50" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3280,13 +3274,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C52" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D52" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3297,7 +3291,7 @@
         <v>73</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3309,13 +3303,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C55" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" t="s">
         <v>389</v>
-      </c>
-      <c r="D55" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3326,7 +3320,7 @@
         <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3338,13 +3332,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D58" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3356,13 +3350,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C60" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D60" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3374,10 +3368,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C62" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3388,12 +3382,12 @@
         <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C64" t="s">
         <v>73</v>
@@ -3408,16 +3402,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C66" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E66" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3429,13 +3423,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C68" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D68" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3447,13 +3441,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C70" t="s">
         <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3461,15 +3455,15 @@
         <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C72" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3481,41 +3475,41 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C74" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D74" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C75" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D75" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E75" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C76" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D76" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E76" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3527,35 +3521,35 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C78" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D78" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C79" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E79" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C80" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E80" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3567,13 +3561,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C82" t="s">
         <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3584,7 +3578,7 @@
         <v>73</v>
       </c>
       <c r="E83" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3597,24 +3591,24 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C85" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E85" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C86" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E86" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3626,13 +3620,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C88" t="s">
         <v>76</v>
       </c>
       <c r="D88" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3640,31 +3634,31 @@
         <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C90" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C91" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C92" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3676,18 +3670,18 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C94" t="s">
         <v>76</v>
       </c>
       <c r="D94" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C95" t="s">
         <v>73</v>
@@ -3695,7 +3689,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C96" t="s">
         <v>73</v>
@@ -3703,7 +3697,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C97" t="s">
         <v>73</v>
@@ -3711,7 +3705,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C98" t="s">
         <v>73</v>
@@ -3719,7 +3713,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C99" t="s">
         <v>73</v>
@@ -3727,7 +3721,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C100" t="s">
         <v>73</v>
@@ -3735,7 +3729,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C101" t="s">
         <v>73</v>
@@ -3743,7 +3737,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C102" t="s">
         <v>73</v>
@@ -3758,13 +3752,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C104" t="s">
         <v>76</v>
       </c>
       <c r="D104" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3772,15 +3766,15 @@
         <v>176</v>
       </c>
       <c r="C105" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C106" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3793,35 +3787,35 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C108" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D108" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C109" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D109" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C110" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D110" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3833,13 +3827,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C112" t="s">
         <v>76</v>
       </c>
       <c r="D112" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3847,40 +3841,40 @@
         <v>176</v>
       </c>
       <c r="C113" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C114" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
+        <v>442</v>
+      </c>
+      <c r="C115" t="s">
+        <v>433</v>
+      </c>
+      <c r="D115" t="s">
         <v>446</v>
-      </c>
-      <c r="C115" t="s">
-        <v>437</v>
-      </c>
-      <c r="D115" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C116" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D116" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E116" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3892,24 +3886,24 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C118" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D118" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C119" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D119" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3921,18 +3915,18 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C121" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D121" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C122" t="s">
         <v>73</v>
@@ -3940,7 +3934,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C123" t="s">
         <v>73</v>
@@ -3948,7 +3942,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C124" t="s">
         <v>73</v>
@@ -3956,7 +3950,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C125" t="s">
         <v>73</v>
@@ -3964,7 +3958,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C126" t="s">
         <v>73</v>
@@ -3972,7 +3966,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C127" t="s">
         <v>73</v>
@@ -3980,7 +3974,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C128" t="s">
         <v>73</v>
@@ -3988,7 +3982,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C129" t="s">
         <v>73</v>
@@ -4003,21 +3997,21 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C131" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C132" t="s">
         <v>73</v>
       </c>
       <c r="D132" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4029,21 +4023,21 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C134" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C135" t="s">
         <v>73</v>
       </c>
       <c r="D135" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4055,7 +4049,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C137" t="s">
         <v>76</v>
@@ -4069,7 +4063,7 @@
         <v>73</v>
       </c>
       <c r="E138" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4081,29 +4075,29 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C140" t="s">
         <v>76</v>
       </c>
       <c r="D140" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C141" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C142" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4115,32 +4109,32 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C144" t="s">
         <v>76</v>
       </c>
       <c r="D144" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C145" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C146" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D146" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4152,13 +4146,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C148" t="s">
         <v>76</v>
       </c>
       <c r="D148" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4169,18 +4163,18 @@
         <v>73</v>
       </c>
       <c r="D149" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C150" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D150" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4192,13 +4186,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C152" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D152" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4209,7 +4203,7 @@
         <v>73</v>
       </c>
       <c r="D153" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4221,10 +4215,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C155" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4235,7 +4229,7 @@
         <v>73</v>
       </c>
       <c r="D156" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4247,13 +4241,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C158" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D158" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4264,7 +4258,7 @@
         <v>73</v>
       </c>
       <c r="D159" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4276,13 +4270,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C161" t="s">
         <v>76</v>
       </c>
       <c r="D161" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4293,18 +4287,18 @@
         <v>73</v>
       </c>
       <c r="D162" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C163" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D163" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4316,7 +4310,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C165" t="s">
         <v>76</v>
@@ -4327,48 +4321,48 @@
         <v>176</v>
       </c>
       <c r="C166" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C167" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C168" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D168" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C169" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D169" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C170" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D170" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4380,7 +4374,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C172" t="s">
         <v>76</v>
@@ -4394,7 +4388,7 @@
         <v>73</v>
       </c>
       <c r="D173" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4405,10 +4399,10 @@
         <v>73</v>
       </c>
       <c r="D174" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E174" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4464,7 +4458,7 @@
         <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4477,35 +4471,35 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4539,18 +4533,18 @@
         <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" t="s">
         <v>204</v>
-      </c>
-      <c r="D11" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4561,18 +4555,18 @@
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4590,7 +4584,7 @@
         <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4608,7 +4602,7 @@
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4616,32 +4610,32 @@
         <v>176</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4654,24 +4648,24 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4683,13 +4677,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4709,16 +4703,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E28" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4730,16 +4724,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4751,16 +4745,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4772,13 +4766,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4786,43 +4780,43 @@
         <v>176</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4834,24 +4828,24 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4863,10 +4857,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C43" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4878,10 +4872,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C45" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4893,13 +4887,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C47" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4911,16 +4905,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C49" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D49" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4932,10 +4926,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C51" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4947,10 +4941,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4962,7 +4956,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C55" t="s">
         <v>76</v>
@@ -4973,10 +4967,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" t="s">
         <v>215</v>
-      </c>
-      <c r="E56" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4988,24 +4982,24 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C58" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C59" t="s">
         <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -5013,26 +5007,26 @@
         <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C61" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5044,13 +5038,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5062,13 +5056,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C66" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" t="s">
         <v>228</v>
-      </c>
-      <c r="D66" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5080,13 +5074,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" t="s">
         <v>226</v>
       </c>
-      <c r="C68" t="s">
-        <v>228</v>
-      </c>
       <c r="D68" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -5098,13 +5092,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C70" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -5116,13 +5110,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C72" t="s">
         <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -5135,13 +5129,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D74" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -5153,16 +5147,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C76" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E76" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -5174,13 +5168,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C78" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78" t="s">
         <v>233</v>
-      </c>
-      <c r="D78" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -5192,38 +5186,38 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s">
         <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E81" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" t="s">
+        <v>241</v>
+      </c>
+      <c r="E82" t="s">
         <v>242</v>
-      </c>
-      <c r="D82" t="s">
-        <v>243</v>
-      </c>
-      <c r="E82" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5235,16 +5229,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" t="s">
         <v>239</v>
-      </c>
-      <c r="C84" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" t="s">
-        <v>240</v>
-      </c>
-      <c r="E84" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5256,13 +5250,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C86" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D86" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5274,13 +5268,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C88" t="s">
         <v>76</v>
       </c>
       <c r="D88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5297,7 +5291,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C91" t="s">
         <v>76</v>
@@ -5305,16 +5299,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C92" t="s">
         <v>73</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5325,7 +5319,7 @@
         <v>73</v>
       </c>
       <c r="D93" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5337,16 +5331,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" t="s">
+        <v>290</v>
+      </c>
+      <c r="D95" t="s">
         <v>291</v>
       </c>
-      <c r="C95" t="s">
-        <v>292</v>
-      </c>
-      <c r="D95" t="s">
-        <v>293</v>
-      </c>
       <c r="E95" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5358,16 +5352,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C97" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" t="s">
         <v>292</v>
       </c>
-      <c r="D97" t="s">
-        <v>294</v>
-      </c>
       <c r="E97" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5379,40 +5373,40 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C99" t="s">
         <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C100" t="s">
         <v>72</v>
       </c>
       <c r="D100" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C102" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5424,93 +5418,93 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C104" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D104" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C105" t="s">
         <v>72</v>
       </c>
       <c r="D105" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C106" t="s">
         <v>168</v>
       </c>
       <c r="D106" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C107" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D107" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C108" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D108" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C109" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D109" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C110" t="s">
+        <v>268</v>
+      </c>
+      <c r="D110" t="s">
         <v>270</v>
       </c>
-      <c r="D110" t="s">
-        <v>272</v>
-      </c>
       <c r="E110" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C111" t="s">
         <v>72</v>
       </c>
       <c r="D111" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5522,18 +5516,18 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C113" t="s">
         <v>76</v>
       </c>
       <c r="D113" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C114" t="s">
         <v>71</v>
@@ -5549,10 +5543,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C116" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5564,7 +5558,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C118" t="s">
         <v>76</v>
@@ -5578,7 +5572,7 @@
         <v>73</v>
       </c>
       <c r="D119" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5590,13 +5584,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C121" t="s">
         <v>76</v>
       </c>
       <c r="D121" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5607,18 +5601,18 @@
         <v>72</v>
       </c>
       <c r="D122" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C123" t="s">
         <v>71</v>
       </c>
       <c r="D123" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5629,18 +5623,18 @@
         <v>73</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C125" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D125" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5652,7 +5646,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C127" t="s">
         <v>76</v>
@@ -5666,7 +5660,7 @@
         <v>73</v>
       </c>
       <c r="D128" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5678,46 +5672,46 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C130" t="s">
         <v>76</v>
       </c>
       <c r="D130" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C131" t="s">
         <v>73</v>
       </c>
       <c r="D131" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D132" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C133" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D133" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5729,7 +5723,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C135" t="s">
         <v>76</v>
@@ -5743,18 +5737,18 @@
         <v>71</v>
       </c>
       <c r="D136" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C137" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D137" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5766,7 +5760,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C139" t="s">
         <v>76</v>
@@ -5780,10 +5774,10 @@
         <v>73</v>
       </c>
       <c r="D140" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E140" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5803,10 +5797,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C143" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -5814,20 +5808,20 @@
         <v>176</v>
       </c>
       <c r="C144" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C145" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C146" t="s">
         <v>72</v>
@@ -5835,7 +5829,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C147" t="s">
         <v>72</v>
@@ -5851,15 +5845,15 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C150" t="s">
         <v>166</v>
@@ -5867,18 +5861,18 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C151" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5890,13 +5884,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>276</v>
+      </c>
+      <c r="C154" t="s">
+        <v>277</v>
+      </c>
+      <c r="D154" t="s">
         <v>278</v>
-      </c>
-      <c r="C154" t="s">
-        <v>279</v>
-      </c>
-      <c r="D154" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5908,13 +5902,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C156" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D156" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5926,16 +5920,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C158" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D158" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E158" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5947,13 +5941,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C160" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D160" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5965,24 +5959,24 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C162" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D162" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C163" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D163" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5994,13 +5988,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C165" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D165" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -6057,35 +6051,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6097,13 +6091,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D6" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6114,79 +6108,79 @@
         <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C9" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D9" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D10" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D11" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C12" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D12" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C13" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D13" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6198,10 +6192,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C15" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6212,79 +6206,79 @@
         <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C17" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D17" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E17" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>578</v>
+      </c>
+      <c r="C18" t="s">
+        <v>562</v>
+      </c>
+      <c r="D18" t="s">
         <v>582</v>
-      </c>
-      <c r="C18" t="s">
-        <v>566</v>
-      </c>
-      <c r="D18" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C19" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D19" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C20" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D20" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C21" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D21" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E21" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C22" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D22" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6296,13 +6290,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C24" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D24" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6313,108 +6307,108 @@
         <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E25" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C26" t="s">
         <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E26" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C27" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D27" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E27" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C28" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D28" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E28" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C29" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D29" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E29" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C30" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D30" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E30" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C31" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D31" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E31" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C32" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D32" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E32" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -6426,7 +6420,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
@@ -6434,49 +6428,49 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C35" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D35" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E36" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C37" t="s">
         <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D38" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -6487,57 +6481,57 @@
         <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C41" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D41" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D42" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E42" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C43" t="s">
         <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E43" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -6548,7 +6542,7 @@
         <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -6559,18 +6553,18 @@
         <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C46" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D46" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -6582,38 +6576,38 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C48" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D48" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C49" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D49" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E49" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C50" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D50" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -6625,35 +6619,35 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D52" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C53" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D53" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C54" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D54" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -6665,41 +6659,41 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C56" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D56" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C57" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D57" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E57" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C58" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D58" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E58" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -6711,57 +6705,57 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C60" t="s">
         <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
       </c>
       <c r="D61" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C62" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D62" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C63" t="s">
+        <v>566</v>
+      </c>
+      <c r="D63" t="s">
         <v>570</v>
-      </c>
-      <c r="D63" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C64" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D64" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -6773,7 +6767,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C66" t="s">
         <v>76</v>
@@ -6787,10 +6781,10 @@
         <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E67" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -6802,7 +6796,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -6816,40 +6810,40 @@
         <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C71" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D71" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C72" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D72" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C73" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D73" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -6861,24 +6855,24 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C76" t="s">
         <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6897,7 +6891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
@@ -6934,7 +6928,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
@@ -6944,10 +6938,10 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
@@ -6957,13 +6951,13 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -6973,7 +6967,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -7009,10 +7003,10 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
@@ -7048,7 +7042,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>74</v>
@@ -7061,7 +7055,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>74</v>
@@ -7074,7 +7068,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>75</v>
@@ -7087,7 +7081,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>75</v>
@@ -7300,7 +7294,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>78</v>
@@ -7332,21 +7326,21 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>35</v>
@@ -7357,10 +7351,10 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -7401,13 +7395,13 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -7433,7 +7427,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>73</v>
@@ -7479,7 +7473,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>81</v>
@@ -7492,7 +7486,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>35</v>
@@ -7590,7 +7584,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>78</v>
@@ -7603,7 +7597,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>164</v>
@@ -7616,7 +7610,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>83</v>
@@ -7629,7 +7623,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>81</v>
@@ -7752,7 +7746,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>92</v>
@@ -7765,7 +7759,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>35</v>
@@ -7798,7 +7792,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>58</v>
@@ -7811,7 +7805,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>96</v>
@@ -7824,7 +7818,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>74</v>
@@ -7931,7 +7925,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>35</v>
@@ -7944,7 +7938,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>164</v>
@@ -7957,7 +7951,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>107</v>
@@ -7983,7 +7977,7 @@
         <v>76</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E93" s="3"/>
     </row>
@@ -8021,7 +8015,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>113</v>
@@ -8047,7 +8041,7 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>164</v>
@@ -8060,7 +8054,7 @@
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>116</v>
@@ -8093,7 +8087,7 @@
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>113</v>
@@ -8106,7 +8100,7 @@
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>127</v>
@@ -8119,7 +8113,7 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>74</v>
@@ -8201,7 +8195,7 @@
         <v>139</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>146</v>
@@ -8214,7 +8208,7 @@
         <v>140</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>145</v>
@@ -8227,7 +8221,7 @@
         <v>141</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>148</v>
@@ -8240,7 +8234,7 @@
         <v>3</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>147</v>
@@ -8289,7 +8283,7 @@
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>79</v>
@@ -8328,7 +8322,7 @@
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>162</v>
@@ -8341,7 +8335,7 @@
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>162</v>
@@ -8354,7 +8348,7 @@
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>160</v>
@@ -8464,13 +8458,13 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E134" s="3"/>
     </row>
@@ -8524,7 +8518,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
@@ -8532,7 +8526,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -8540,13 +8534,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8559,42 +8553,42 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C10" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8606,24 +8600,24 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8634,18 +8628,18 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8658,42 +8652,42 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C17" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C18" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C19" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C20" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C21" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8705,13 +8699,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C23" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D23" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -8723,13 +8717,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C25" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D25" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -8741,7 +8735,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
@@ -8764,15 +8758,15 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C30" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
@@ -8780,18 +8774,18 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C32" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C33" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8803,7 +8797,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
@@ -8826,10 +8820,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C38" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8841,10 +8835,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C40" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8856,10 +8850,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C42" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8871,10 +8865,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C44" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8886,10 +8880,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C46" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8901,10 +8895,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C48" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8916,7 +8910,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C50" t="s">
         <v>76</v>
@@ -8931,26 +8925,26 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C52" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C54" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8962,15 +8956,15 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C56" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C57" t="s">
         <v>166</v>
@@ -8985,10 +8979,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C59" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -9000,10 +8994,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C61" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -9015,7 +9009,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
@@ -9023,7 +9017,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -9031,7 +9025,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -9039,26 +9033,26 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C66" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C67" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C68" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -9070,7 +9064,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C70" t="s">
         <v>76</v>
@@ -9093,7 +9087,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -9101,47 +9095,47 @@
         <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C75" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C76" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C78" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C79" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -9153,7 +9147,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C81" t="s">
         <v>76</v>
@@ -9164,15 +9158,15 @@
         <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C83" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -9185,10 +9179,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C85" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -9200,7 +9194,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C87" t="s">
         <v>76</v>
@@ -9223,7 +9217,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C90" t="s">
         <v>76</v>
@@ -9231,18 +9225,18 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C91" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C92" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9254,7 +9248,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C94" t="s">
         <v>76</v>
@@ -9262,7 +9256,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C95" t="s">
         <v>72</v>
@@ -9270,26 +9264,26 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C96" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C97" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C98" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9301,7 +9295,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C100" t="s">
         <v>76</v>
@@ -9312,15 +9306,15 @@
         <v>176</v>
       </c>
       <c r="C101" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C102" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -9340,13 +9334,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C105" t="s">
         <v>76</v>
       </c>
       <c r="D105" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -9354,32 +9348,32 @@
         <v>176</v>
       </c>
       <c r="C106" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D106" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C107" t="s">
         <v>73</v>
       </c>
       <c r="D107" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C108" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D108" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -9392,29 +9386,29 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C110" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D110" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C111" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C112" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -9426,13 +9420,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C114" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D114" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -9444,13 +9438,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C116" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D116" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -9462,7 +9456,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C118" t="s">
         <v>76</v>
@@ -9470,46 +9464,46 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C119" t="s">
         <v>72</v>
       </c>
       <c r="D119" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C120" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D120" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C121" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D121" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C122" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D122" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9521,7 +9515,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C124" t="s">
         <v>76</v>
@@ -9535,7 +9529,7 @@
         <v>73</v>
       </c>
       <c r="D125" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -9555,65 +9549,68 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="189.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>751</v>
+      <c r="A2" s="17" t="s">
+        <v>747</v>
       </c>
       <c r="B2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B4" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B6" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="G1iAiQhujtc8zbHC_F-qAgPAH7AQR3oS-_" xr:uid="{BA2CF886-130B-4BE5-A46B-0D305E1EC265}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DetailsSpec/Domain Model Class details.xlsx
+++ b/DetailsSpec/Domain Model Class details.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1E349-89F2-4C5B-93C1-212F76C93FB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6828" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parties" sheetId="3" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="769">
   <si>
     <t>Description</t>
   </si>
@@ -1245,9 +1244,6 @@
     <t>InternalOrganization</t>
   </si>
   <si>
-    <t>องค์กรภายในบริษัท</t>
-  </si>
-  <si>
     <t>แบ่งหน้าที่หน่วยในองค์กร</t>
   </si>
   <si>
@@ -1359,9 +1355,6 @@
     <t>DefinedVia</t>
   </si>
   <si>
-    <t>PartyContactMechanismPurposeType</t>
-  </si>
-  <si>
     <t>ประเภทวัตถุประการติดต่อ</t>
   </si>
   <si>
@@ -1449,12 +1442,6 @@
     <t>สถานที่</t>
   </si>
   <si>
-    <t>PartyFacility</t>
-  </si>
-  <si>
-    <t>PartyFacilityType</t>
-  </si>
-  <si>
     <t>มีหน้าที่ของ บุคคล หรือ องค์กรในสถานที่</t>
   </si>
   <si>
@@ -1605,9 +1592,6 @@
     <t>จำนวนที่วัดได้</t>
   </si>
   <si>
-    <t>เช่า(Lease)สถานที่, ให้เช่า(Rent)สถานที่ หรือ เจ้าของ (Owner)สถานที่</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -2013,9 +1997,6 @@
     <t>SKU คืออะไร และแตกต่างกับ รหัสสินค้า อย่างไร</t>
   </si>
   <si>
-    <t>Lease, Rent, Owner, Stock</t>
-  </si>
-  <si>
     <t>Subclass -&gt; GoodIdentification</t>
   </si>
   <si>
@@ -2335,12 +2316,27 @@
   </si>
   <si>
     <t>CitizenId</t>
+  </si>
+  <si>
+    <t>Subclass -&gt; ContactMechanism</t>
+  </si>
+  <si>
+    <t>ContactMechanismPurposeType</t>
+  </si>
+  <si>
+    <t>ContactMechanismLink</t>
+  </si>
+  <si>
+    <t>FacilityRole</t>
+  </si>
+  <si>
+    <t>StockGoods, Meeting, เช่า(Lease)สถานที่, ให้เช่า(Rent)สถานที่ หรือ เจ้าของ (Owner)สถานที่</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2754,24 +2750,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83984375" customWidth="1"/>
+    <col min="2" max="2" width="21.578125" customWidth="1"/>
+    <col min="3" max="3" width="34.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -2788,7 +2784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>297</v>
       </c>
@@ -2799,14 +2795,14 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>298</v>
       </c>
@@ -2817,7 +2813,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>300</v>
       </c>
@@ -2825,7 +2821,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>302</v>
       </c>
@@ -2833,7 +2829,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>303</v>
       </c>
@@ -2841,7 +2837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>305</v>
       </c>
@@ -2852,30 +2848,30 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>301</v>
       </c>
@@ -2883,7 +2879,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>122</v>
       </c>
@@ -2894,7 +2890,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -2902,17 +2898,17 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -2920,7 +2916,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>122</v>
       </c>
@@ -2931,7 +2927,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -2939,17 +2935,17 @@
         <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -2960,7 +2956,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>122</v>
       </c>
@@ -2968,14 +2964,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>312</v>
       </c>
@@ -2986,7 +2982,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>176</v>
       </c>
@@ -2997,7 +2993,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>218</v>
       </c>
@@ -3008,7 +3004,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>316</v>
       </c>
@@ -3019,7 +3015,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>323</v>
       </c>
@@ -3030,14 +3026,14 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>352</v>
       </c>
@@ -3048,7 +3044,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -3062,14 +3058,14 @@
         <v>356</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>359</v>
       </c>
@@ -3080,14 +3076,14 @@
         <v>370</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>361</v>
       </c>
@@ -3101,14 +3097,14 @@
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>363</v>
       </c>
@@ -3119,17 +3115,17 @@
         <v>365</v>
       </c>
       <c r="E36" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>366</v>
       </c>
@@ -3140,17 +3136,17 @@
         <v>367</v>
       </c>
       <c r="E38" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>368</v>
       </c>
@@ -3164,14 +3160,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>373</v>
       </c>
@@ -3182,10 +3178,10 @@
         <v>380</v>
       </c>
       <c r="E42" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>176</v>
       </c>
@@ -3193,7 +3189,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>218</v>
       </c>
@@ -3201,7 +3197,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>316</v>
       </c>
@@ -3212,7 +3208,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>323</v>
       </c>
@@ -3226,14 +3222,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>396</v>
       </c>
@@ -3247,14 +3243,14 @@
         <v>404</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>384</v>
       </c>
@@ -3265,14 +3261,14 @@
         <v>391</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>386</v>
       </c>
@@ -3283,7 +3279,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
         <v>84</v>
       </c>
@@ -3291,17 +3287,17 @@
         <v>73</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>388</v>
       </c>
@@ -3312,7 +3308,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" t="s">
         <v>122</v>
       </c>
@@ -3323,14 +3319,14 @@
         <v>401</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>390</v>
       </c>
@@ -3341,14 +3337,14 @@
         <v>393</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>405</v>
       </c>
@@ -3356,17 +3352,17 @@
         <v>400</v>
       </c>
       <c r="D60" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>395</v>
       </c>
@@ -3374,7 +3370,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" t="s">
         <v>84</v>
       </c>
@@ -3385,22 +3381,22 @@
         <v>394</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>399</v>
       </c>
@@ -3408,286 +3404,284 @@
         <v>400</v>
       </c>
       <c r="D66" t="s">
+        <v>406</v>
+      </c>
+      <c r="E66" t="s">
         <v>407</v>
       </c>
-      <c r="E66" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C68" t="s">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
         <v>409</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C72" t="s">
+        <v>410</v>
+      </c>
+      <c r="D72" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" t="s">
+        <v>329</v>
+      </c>
+      <c r="C73" t="s">
+        <v>373</v>
+      </c>
+      <c r="D73" t="s">
+        <v>620</v>
+      </c>
+      <c r="E73" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" t="s">
+        <v>330</v>
+      </c>
+      <c r="C74" t="s">
+        <v>373</v>
+      </c>
+      <c r="D74" t="s">
+        <v>621</v>
+      </c>
+      <c r="E74" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>412</v>
+      </c>
+      <c r="C76" t="s">
+        <v>410</v>
+      </c>
+      <c r="D76" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" t="s">
+        <v>329</v>
+      </c>
+      <c r="C77" t="s">
+        <v>373</v>
+      </c>
+      <c r="E77" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" t="s">
+        <v>373</v>
+      </c>
+      <c r="E78" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" t="s">
         <v>76</v>
       </c>
-      <c r="D70" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>176</v>
-      </c>
-      <c r="C71" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C72" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>410</v>
-      </c>
-      <c r="C74" t="s">
-        <v>411</v>
-      </c>
-      <c r="D74" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="D80" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" t="s">
         <v>329</v>
       </c>
-      <c r="C75" t="s">
-        <v>373</v>
-      </c>
-      <c r="D75" t="s">
-        <v>625</v>
-      </c>
-      <c r="E75" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>330</v>
-      </c>
-      <c r="C76" t="s">
-        <v>373</v>
-      </c>
-      <c r="D76" t="s">
-        <v>626</v>
-      </c>
-      <c r="E76" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>413</v>
-      </c>
-      <c r="C78" t="s">
-        <v>411</v>
-      </c>
-      <c r="D78" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>329</v>
-      </c>
-      <c r="C79" t="s">
-        <v>373</v>
-      </c>
-      <c r="E79" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>330</v>
-      </c>
-      <c r="C80" t="s">
-        <v>373</v>
-      </c>
-      <c r="E80" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>417</v>
-      </c>
-      <c r="C82" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>122</v>
-      </c>
       <c r="C83" t="s">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="E83" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" t="s">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="C84" t="s">
+        <v>396</v>
+      </c>
+      <c r="E84" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>421</v>
+      </c>
+      <c r="C86" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" t="s">
+        <v>347</v>
+      </c>
+      <c r="C89" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" t="s">
+        <v>345</v>
+      </c>
+      <c r="C90" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>424</v>
+      </c>
+      <c r="C92" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" t="s">
+        <v>481</v>
+      </c>
+      <c r="C93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>329</v>
-      </c>
-      <c r="C85" t="s">
-        <v>396</v>
-      </c>
-      <c r="E85" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>330</v>
-      </c>
-      <c r="C86" t="s">
-        <v>396</v>
-      </c>
-      <c r="E86" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>422</v>
-      </c>
-      <c r="C88" t="s">
-        <v>76</v>
-      </c>
-      <c r="D88" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>218</v>
-      </c>
-      <c r="C90" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>347</v>
-      </c>
-      <c r="C91" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>345</v>
-      </c>
-      <c r="C92" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>425</v>
-      </c>
       <c r="C94" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C95" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" t="s">
         <v>426</v>
       </c>
@@ -3695,244 +3689,244 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
-        <v>482</v>
+        <v>427</v>
       </c>
       <c r="C97" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C98" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C99" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C100" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>431</v>
-      </c>
-      <c r="C101" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>432</v>
+      </c>
+      <c r="C102" t="s">
+        <v>76</v>
+      </c>
+      <c r="D102" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" t="s">
+        <v>167</v>
+      </c>
+      <c r="C105" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>429</v>
-      </c>
-      <c r="C102" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" t="s">
+        <v>434</v>
+      </c>
+      <c r="C106" t="s">
+        <v>297</v>
+      </c>
+      <c r="D106" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" t="s">
+        <v>347</v>
+      </c>
+      <c r="C107" t="s">
+        <v>396</v>
+      </c>
+      <c r="D107" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" t="s">
+        <v>437</v>
+      </c>
+      <c r="C108" t="s">
+        <v>438</v>
+      </c>
+      <c r="D108" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>440</v>
+      </c>
+      <c r="C110" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" t="s">
+        <v>441</v>
+      </c>
+      <c r="C113" t="s">
+        <v>432</v>
+      </c>
+      <c r="D113" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" t="s">
+        <v>442</v>
+      </c>
+      <c r="C114" t="s">
+        <v>765</v>
+      </c>
+      <c r="D114" t="s">
+        <v>443</v>
+      </c>
+      <c r="E114" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>438</v>
+      </c>
+      <c r="C116" t="s">
+        <v>381</v>
+      </c>
+      <c r="D116" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" t="s">
+        <v>323</v>
+      </c>
+      <c r="C117" t="s">
+        <v>449</v>
+      </c>
+      <c r="D117" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
+        <v>447</v>
+      </c>
+      <c r="C119" t="s">
+        <v>764</v>
+      </c>
+      <c r="D119" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" t="s">
+        <v>481</v>
+      </c>
+      <c r="C120" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>433</v>
-      </c>
-      <c r="C104" t="s">
-        <v>76</v>
-      </c>
-      <c r="D104" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>176</v>
-      </c>
-      <c r="C105" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>218</v>
-      </c>
-      <c r="C106" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" t="s">
+        <v>425</v>
+      </c>
+      <c r="C121" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>435</v>
-      </c>
-      <c r="C108" t="s">
-        <v>297</v>
-      </c>
-      <c r="D108" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>347</v>
-      </c>
-      <c r="C109" t="s">
-        <v>396</v>
-      </c>
-      <c r="D109" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>438</v>
-      </c>
-      <c r="C110" t="s">
-        <v>439</v>
-      </c>
-      <c r="D110" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>441</v>
-      </c>
-      <c r="C112" t="s">
-        <v>76</v>
-      </c>
-      <c r="D112" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>176</v>
-      </c>
-      <c r="C113" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>218</v>
-      </c>
-      <c r="C114" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>442</v>
-      </c>
-      <c r="C115" t="s">
-        <v>433</v>
-      </c>
-      <c r="D115" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>443</v>
-      </c>
-      <c r="C116" t="s">
-        <v>444</v>
-      </c>
-      <c r="D116" t="s">
-        <v>445</v>
-      </c>
-      <c r="E116" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>439</v>
-      </c>
-      <c r="C118" t="s">
-        <v>381</v>
-      </c>
-      <c r="D118" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>323</v>
-      </c>
-      <c r="C119" t="s">
-        <v>451</v>
-      </c>
-      <c r="D119" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>449</v>
-      </c>
-      <c r="C121" t="s">
-        <v>400</v>
-      </c>
-      <c r="D121" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C122" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" t="s">
         <v>426</v>
       </c>
@@ -3940,477 +3934,450 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" t="s">
-        <v>482</v>
+        <v>427</v>
       </c>
       <c r="C124" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C125" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C126" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C127" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>431</v>
-      </c>
-      <c r="C128" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
+        <v>453</v>
+      </c>
+      <c r="C129" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" t="s">
+        <v>332</v>
+      </c>
+      <c r="C130" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>429</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="D130" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>454</v>
+      </c>
+      <c r="C132" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" t="s">
+        <v>448</v>
+      </c>
+      <c r="C133" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="D133" t="s">
         <v>455</v>
       </c>
-      <c r="C131" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>332</v>
-      </c>
-      <c r="C132" t="s">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>449</v>
+      </c>
+      <c r="C135" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B136" t="s">
+        <v>122</v>
+      </c>
+      <c r="C136" t="s">
         <v>73</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E136" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
+        <v>766</v>
+      </c>
+      <c r="C138" t="s">
+        <v>76</v>
+      </c>
+      <c r="D138" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B139" t="s">
+        <v>329</v>
+      </c>
+      <c r="C139" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140" t="s">
+        <v>330</v>
+      </c>
+      <c r="C140" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>456</v>
-      </c>
-      <c r="C134" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>450</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="C142" t="s">
+        <v>76</v>
+      </c>
+      <c r="D142" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B143" t="s">
+        <v>437</v>
+      </c>
+      <c r="C143" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B144" t="s">
+        <v>459</v>
+      </c>
+      <c r="C144" t="s">
+        <v>457</v>
+      </c>
+      <c r="D144" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" t="s">
+        <v>457</v>
+      </c>
+      <c r="C146" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
         <v>73</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D147" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B148" t="s">
+        <v>344</v>
+      </c>
+      <c r="C148" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>451</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D148" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" t="s">
+        <v>461</v>
+      </c>
+      <c r="C150" t="s">
+        <v>462</v>
+      </c>
+      <c r="D150" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B151" t="s">
+        <v>84</v>
+      </c>
+      <c r="C151" t="s">
+        <v>73</v>
+      </c>
+      <c r="D151" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
+        <v>463</v>
+      </c>
+      <c r="C153" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B154" t="s">
+        <v>122</v>
+      </c>
+      <c r="C154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D154" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
+        <v>464</v>
+      </c>
+      <c r="C156" t="s">
+        <v>462</v>
+      </c>
+      <c r="D156" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B157" t="s">
+        <v>84</v>
+      </c>
+      <c r="C157" t="s">
+        <v>73</v>
+      </c>
+      <c r="D157" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
+        <v>467</v>
+      </c>
+      <c r="C159" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>122</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="D159" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B160" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" t="s">
         <v>73</v>
       </c>
-      <c r="E138" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>439</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="D160" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B161" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" t="s">
+        <v>457</v>
+      </c>
+      <c r="D161" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="s">
+        <v>767</v>
+      </c>
+      <c r="C163" t="s">
         <v>76</v>
       </c>
-      <c r="D140" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>329</v>
-      </c>
-      <c r="C141" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>330</v>
-      </c>
-      <c r="C142" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>460</v>
-      </c>
-      <c r="C144" t="s">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B164" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B165" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B166" t="s">
+        <v>316</v>
+      </c>
+      <c r="C166" t="s">
+        <v>297</v>
+      </c>
+      <c r="D166" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B167" t="s">
+        <v>317</v>
+      </c>
+      <c r="C167" t="s">
+        <v>457</v>
+      </c>
+      <c r="D167" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B168" t="s">
+        <v>323</v>
+      </c>
+      <c r="C168" t="s">
+        <v>470</v>
+      </c>
+      <c r="D168" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" t="s">
+        <v>470</v>
+      </c>
+      <c r="C170" t="s">
         <v>76</v>
       </c>
-      <c r="D144" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>438</v>
-      </c>
-      <c r="C145" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>461</v>
-      </c>
-      <c r="C146" t="s">
-        <v>459</v>
-      </c>
-      <c r="D146" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>459</v>
-      </c>
-      <c r="C148" t="s">
-        <v>76</v>
-      </c>
-      <c r="D148" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B171" t="s">
         <v>0</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C171" t="s">
         <v>73</v>
       </c>
-      <c r="D149" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>344</v>
-      </c>
-      <c r="C150" t="s">
-        <v>459</v>
-      </c>
-      <c r="D150" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>463</v>
-      </c>
-      <c r="C152" t="s">
-        <v>464</v>
-      </c>
-      <c r="D152" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>84</v>
-      </c>
-      <c r="C153" t="s">
-        <v>73</v>
-      </c>
-      <c r="D153" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>465</v>
-      </c>
-      <c r="C155" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>122</v>
-      </c>
-      <c r="C156" t="s">
-        <v>73</v>
-      </c>
-      <c r="D156" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>466</v>
-      </c>
-      <c r="C158" t="s">
-        <v>464</v>
-      </c>
-      <c r="D158" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>84</v>
-      </c>
-      <c r="C159" t="s">
-        <v>73</v>
-      </c>
-      <c r="D159" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>469</v>
-      </c>
-      <c r="C161" t="s">
-        <v>76</v>
-      </c>
-      <c r="D161" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>84</v>
-      </c>
-      <c r="C162" t="s">
-        <v>73</v>
-      </c>
-      <c r="D162" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>345</v>
-      </c>
-      <c r="C163" t="s">
-        <v>459</v>
-      </c>
-      <c r="D163" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>474</v>
-      </c>
-      <c r="C165" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>176</v>
-      </c>
-      <c r="C166" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>218</v>
-      </c>
-      <c r="C167" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>316</v>
-      </c>
-      <c r="C168" t="s">
-        <v>297</v>
-      </c>
-      <c r="D168" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>317</v>
-      </c>
-      <c r="C169" t="s">
-        <v>459</v>
-      </c>
-      <c r="D169" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>323</v>
-      </c>
-      <c r="C170" t="s">
-        <v>475</v>
-      </c>
-      <c r="D170" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>472</v>
-      </c>
-      <c r="C172" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>122</v>
-      </c>
-      <c r="C173" t="s">
-        <v>73</v>
-      </c>
-      <c r="D173" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" t="s">
-        <v>73</v>
-      </c>
-      <c r="D174" t="s">
-        <v>486</v>
-      </c>
-      <c r="E174" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
+      <c r="D171" t="s">
+        <v>482</v>
+      </c>
+      <c r="E171" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4419,7 +4386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4427,16 +4394,16 @@
       <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.26171875" customWidth="1"/>
+    <col min="3" max="3" width="40.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.15625" customWidth="1"/>
+    <col min="5" max="5" width="51.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -4453,7 +4420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -4461,7 +4428,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>122</v>
       </c>
@@ -4469,40 +4436,40 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C4" t="s">
         <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C5" t="s">
         <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C6" t="s">
         <v>374</v>
       </c>
       <c r="D6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>167</v>
       </c>
@@ -4510,7 +4477,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -4518,14 +4485,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -4533,10 +4500,10 @@
         <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>203</v>
       </c>
@@ -4547,7 +4514,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>174</v>
       </c>
@@ -4558,7 +4525,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>334</v>
       </c>
@@ -4569,14 +4536,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -4587,14 +4554,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -4605,7 +4572,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>176</v>
       </c>
@@ -4616,7 +4583,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>218</v>
       </c>
@@ -4624,10 +4591,10 @@
         <v>374</v>
       </c>
       <c r="D19" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>177</v>
       </c>
@@ -4638,7 +4605,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>167</v>
       </c>
@@ -4646,7 +4613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>335</v>
       </c>
@@ -4657,7 +4624,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>336</v>
       </c>
@@ -4668,14 +4635,14 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -4686,7 +4653,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -4694,14 +4661,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -4709,20 +4676,20 @@
         <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E28" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>181</v>
       </c>
@@ -4736,14 +4703,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -4757,14 +4724,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -4772,10 +4739,10 @@
         <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>176</v>
       </c>
@@ -4786,7 +4753,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>218</v>
       </c>
@@ -4797,7 +4764,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>317</v>
       </c>
@@ -4808,7 +4775,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>316</v>
       </c>
@@ -4819,14 +4786,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>202</v>
       </c>
@@ -4837,7 +4804,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>382</v>
       </c>
@@ -4848,113 +4815,113 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>205</v>
       </c>
       <c r="C43" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>206</v>
       </c>
       <c r="C45" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>207</v>
       </c>
       <c r="C47" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>208</v>
       </c>
       <c r="C49" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D49" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>209</v>
       </c>
       <c r="C51" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>210</v>
       </c>
       <c r="C53" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>212</v>
       </c>
@@ -4962,7 +4929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -4973,14 +4940,14 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>216</v>
       </c>
@@ -4991,7 +4958,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
         <v>337</v>
       </c>
@@ -5002,7 +4969,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" t="s">
         <v>176</v>
       </c>
@@ -5010,7 +4977,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" t="s">
         <v>218</v>
       </c>
@@ -5018,7 +4985,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" t="s">
         <v>323</v>
       </c>
@@ -5029,14 +4996,14 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -5047,14 +5014,14 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -5065,14 +5032,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>224</v>
       </c>
@@ -5080,17 +5047,17 @@
         <v>226</v>
       </c>
       <c r="D68" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>225</v>
       </c>
@@ -5101,14 +5068,14 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>220</v>
       </c>
@@ -5119,7 +5086,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -5127,7 +5094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
         <v>338</v>
       </c>
@@ -5138,14 +5105,14 @@
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -5159,14 +5126,14 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>232</v>
       </c>
@@ -5177,14 +5144,14 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>234</v>
       </c>
@@ -5192,7 +5159,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" t="s">
         <v>235</v>
       </c>
@@ -5200,13 +5167,13 @@
         <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E81" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" t="s">
         <v>340</v>
       </c>
@@ -5220,14 +5187,14 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>237</v>
       </c>
@@ -5241,14 +5208,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>243</v>
       </c>
@@ -5259,14 +5226,14 @@
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>250</v>
       </c>
@@ -5277,19 +5244,19 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>240</v>
       </c>
@@ -5297,7 +5264,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" t="s">
         <v>252</v>
       </c>
@@ -5308,10 +5275,10 @@
         <v>254</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" t="s">
         <v>0</v>
       </c>
@@ -5322,14 +5289,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>289</v>
       </c>
@@ -5340,17 +5307,17 @@
         <v>291</v>
       </c>
       <c r="E95" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>283</v>
       </c>
@@ -5364,14 +5331,14 @@
         <v>293</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>255</v>
       </c>
@@ -5382,7 +5349,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
         <v>256</v>
       </c>
@@ -5393,7 +5360,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
         <v>341</v>
       </c>
@@ -5401,7 +5368,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
         <v>342</v>
       </c>
@@ -5409,14 +5376,14 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>259</v>
       </c>
@@ -5427,7 +5394,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" t="s">
         <v>261</v>
       </c>
@@ -5435,10 +5402,10 @@
         <v>72</v>
       </c>
       <c r="D105" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
         <v>343</v>
       </c>
@@ -5449,9 +5416,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C107" t="s">
         <v>263</v>
@@ -5460,7 +5427,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" t="s">
         <v>344</v>
       </c>
@@ -5471,7 +5438,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" t="s">
         <v>345</v>
       </c>
@@ -5482,7 +5449,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" t="s">
         <v>346</v>
       </c>
@@ -5496,7 +5463,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" t="s">
         <v>261</v>
       </c>
@@ -5504,17 +5471,17 @@
         <v>72</v>
       </c>
       <c r="D111" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>265</v>
       </c>
@@ -5522,10 +5489,10 @@
         <v>76</v>
       </c>
       <c r="D113" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" t="s">
         <v>272</v>
       </c>
@@ -5533,7 +5500,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" t="s">
         <v>39</v>
       </c>
@@ -5541,7 +5508,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
         <v>375</v>
       </c>
@@ -5549,14 +5516,14 @@
         <v>374</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>263</v>
       </c>
@@ -5564,7 +5531,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
         <v>0</v>
       </c>
@@ -5572,28 +5539,28 @@
         <v>73</v>
       </c>
       <c r="D119" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C121" t="s">
         <v>76</v>
       </c>
       <c r="D121" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" t="s">
         <v>39</v>
       </c>
@@ -5601,21 +5568,21 @@
         <v>72</v>
       </c>
       <c r="D122" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C123" t="s">
         <v>71</v>
       </c>
       <c r="D123" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" t="s">
         <v>167</v>
       </c>
@@ -5623,36 +5590,36 @@
         <v>73</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C125" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D125" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C127" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" t="s">
         <v>0</v>
       </c>
@@ -5660,39 +5627,39 @@
         <v>73</v>
       </c>
       <c r="D128" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C130" t="s">
         <v>76</v>
       </c>
       <c r="D130" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C131" t="s">
         <v>73</v>
       </c>
       <c r="D131" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" t="s">
         <v>330</v>
       </c>
@@ -5700,36 +5667,36 @@
         <v>259</v>
       </c>
       <c r="D132" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C133" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D133" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C135" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" t="s">
         <v>46</v>
       </c>
@@ -5737,36 +5704,36 @@
         <v>71</v>
       </c>
       <c r="D136" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C137" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D137" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C139" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" t="s">
         <v>122</v>
       </c>
@@ -5774,13 +5741,13 @@
         <v>73</v>
       </c>
       <c r="D140" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E140" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" t="s">
         <v>0</v>
       </c>
@@ -5788,14 +5755,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>273</v>
       </c>
@@ -5803,7 +5770,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" t="s">
         <v>176</v>
       </c>
@@ -5811,7 +5778,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" t="s">
         <v>376</v>
       </c>
@@ -5819,7 +5786,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" t="s">
         <v>274</v>
       </c>
@@ -5827,7 +5794,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" t="s">
         <v>275</v>
       </c>
@@ -5835,7 +5802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" t="s">
         <v>167</v>
       </c>
@@ -5843,7 +5810,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" t="s">
         <v>288</v>
       </c>
@@ -5851,7 +5818,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" t="s">
         <v>294</v>
       </c>
@@ -5859,7 +5826,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" t="s">
         <v>295</v>
       </c>
@@ -5867,7 +5834,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" t="s">
         <v>347</v>
       </c>
@@ -5875,14 +5842,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>276</v>
       </c>
@@ -5893,14 +5860,14 @@
         <v>278</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>279</v>
       </c>
@@ -5911,14 +5878,14 @@
         <v>280</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>281</v>
       </c>
@@ -5926,20 +5893,20 @@
         <v>277</v>
       </c>
       <c r="D158" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E158" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>282</v>
       </c>
@@ -5947,17 +5914,17 @@
         <v>277</v>
       </c>
       <c r="D160" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="16" t="s">
         <v>286</v>
       </c>
@@ -5968,9 +5935,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C163" t="s">
         <v>283</v>
@@ -5979,14 +5946,14 @@
         <v>293</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>287</v>
       </c>
@@ -5997,7 +5964,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -6006,8 +5973,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E92" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D47" r:id="rId2" xr:uid="{D5D5098D-1000-41BA-9541-A65590D849A5}"/>
+    <hyperlink ref="E92" r:id="rId1"/>
+    <hyperlink ref="D47" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -6015,7 +5982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6023,16 +5990,16 @@
       <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="2" max="2" width="26.578125" customWidth="1"/>
+    <col min="3" max="3" width="33.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.68359375" customWidth="1"/>
+    <col min="5" max="5" width="36.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -6049,58 +6016,58 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C2" t="s">
         <v>381</v>
       </c>
       <c r="D2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C3" t="s">
         <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C6" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>84</v>
       </c>
@@ -6108,97 +6075,97 @@
         <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E7" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C8" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D8" t="s">
+        <v>585</v>
+      </c>
+      <c r="E8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C9" t="s">
+        <v>557</v>
+      </c>
+      <c r="D9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C10" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D12" t="s">
         <v>590</v>
       </c>
-      <c r="E8" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>578</v>
-      </c>
-      <c r="C9" t="s">
-        <v>562</v>
-      </c>
-      <c r="D9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>579</v>
-      </c>
-      <c r="C10" t="s">
-        <v>562</v>
-      </c>
-      <c r="D10" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>600</v>
-      </c>
-      <c r="C11" t="s">
-        <v>563</v>
-      </c>
-      <c r="D11" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>603</v>
-      </c>
-      <c r="C12" t="s">
-        <v>563</v>
-      </c>
-      <c r="D12" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C13" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D13" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C15" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>84</v>
       </c>
@@ -6206,100 +6173,100 @@
         <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C17" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D17" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E17" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
+        <v>573</v>
+      </c>
+      <c r="C18" t="s">
+        <v>557</v>
+      </c>
+      <c r="D18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>574</v>
+      </c>
+      <c r="C19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D19" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>596</v>
+      </c>
+      <c r="C20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>598</v>
+      </c>
+      <c r="C21" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" t="s">
         <v>578</v>
       </c>
-      <c r="C18" t="s">
-        <v>562</v>
-      </c>
-      <c r="D18" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="E21" t="s">
         <v>579</v>
       </c>
-      <c r="C19" t="s">
-        <v>562</v>
-      </c>
-      <c r="D19" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>601</v>
-      </c>
-      <c r="C20" t="s">
-        <v>563</v>
-      </c>
-      <c r="D20" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>603</v>
-      </c>
-      <c r="C21" t="s">
-        <v>563</v>
-      </c>
-      <c r="D21" t="s">
-        <v>583</v>
-      </c>
-      <c r="E21" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C22" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D22" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C24" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D24" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>84</v>
       </c>
@@ -6307,151 +6274,151 @@
         <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E25" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C26" t="s">
         <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E26" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C27" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D27" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E27" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>573</v>
+      </c>
+      <c r="C28" t="s">
+        <v>557</v>
+      </c>
+      <c r="D28" t="s">
+        <v>648</v>
+      </c>
+      <c r="E28" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
+        <v>574</v>
+      </c>
+      <c r="C29" t="s">
+        <v>557</v>
+      </c>
+      <c r="D29" t="s">
+        <v>633</v>
+      </c>
+      <c r="E29" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>635</v>
+      </c>
+      <c r="C30" t="s">
+        <v>558</v>
+      </c>
+      <c r="D30" t="s">
+        <v>636</v>
+      </c>
+      <c r="E30" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>598</v>
+      </c>
+      <c r="C31" t="s">
+        <v>558</v>
+      </c>
+      <c r="D31" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>578</v>
-      </c>
-      <c r="C28" t="s">
-        <v>562</v>
-      </c>
-      <c r="D28" t="s">
-        <v>653</v>
-      </c>
-      <c r="E28" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>579</v>
-      </c>
-      <c r="C29" t="s">
-        <v>562</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E31" t="s">
         <v>638</v>
       </c>
-      <c r="E29" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>641</v>
+      </c>
+      <c r="C32" t="s">
+        <v>558</v>
+      </c>
+      <c r="D32" t="s">
         <v>640</v>
       </c>
-      <c r="C30" t="s">
-        <v>563</v>
-      </c>
-      <c r="D30" t="s">
-        <v>641</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>603</v>
-      </c>
-      <c r="C31" t="s">
-        <v>563</v>
-      </c>
-      <c r="D31" t="s">
-        <v>644</v>
-      </c>
-      <c r="E31" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>646</v>
-      </c>
-      <c r="C32" t="s">
-        <v>563</v>
-      </c>
-      <c r="D32" t="s">
-        <v>645</v>
-      </c>
-      <c r="E32" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>344</v>
       </c>
       <c r="C35" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D35" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E36" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>294</v>
       </c>
@@ -6459,10 +6426,10 @@
         <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>295</v>
       </c>
@@ -6470,10 +6437,10 @@
         <v>249</v>
       </c>
       <c r="D38" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>39</v>
       </c>
@@ -6481,10 +6448,10 @@
         <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
         <v>274</v>
       </c>
@@ -6492,49 +6459,49 @@
         <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>288</v>
       </c>
       <c r="C41" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D41" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C42" t="s">
         <v>374</v>
       </c>
       <c r="D42" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E42" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C43" t="s">
         <v>73</v>
       </c>
       <c r="D43" t="s">
+        <v>543</v>
+      </c>
+      <c r="E43" t="s">
         <v>548</v>
       </c>
-      <c r="E43" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>60</v>
       </c>
@@ -6542,10 +6509,10 @@
         <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>167</v>
       </c>
@@ -6553,227 +6520,227 @@
         <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C46" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D46" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C48" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D48" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C49" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D49" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E49" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C50" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D50" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C52" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D52" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" t="s">
+        <v>649</v>
+      </c>
+      <c r="C53" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>654</v>
-      </c>
-      <c r="C53" t="s">
-        <v>562</v>
-      </c>
       <c r="D53" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C54" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D54" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C56" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D56" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C57" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D57" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E57" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C58" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D58" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E58" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C60" t="s">
         <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
       </c>
       <c r="D61" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" t="s">
         <v>317</v>
       </c>
       <c r="C62" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D62" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C63" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D63" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
         <v>323</v>
       </c>
       <c r="C64" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D64" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" t="s">
         <v>0</v>
       </c>
@@ -6781,28 +6748,28 @@
         <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E67" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" t="s">
         <v>46</v>
       </c>
@@ -6810,72 +6777,72 @@
         <v>71</v>
       </c>
       <c r="D70" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" t="s">
+        <v>603</v>
+      </c>
+      <c r="C71" t="s">
+        <v>532</v>
+      </c>
+      <c r="D71" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" t="s">
+        <v>602</v>
+      </c>
+      <c r="C72" t="s">
+        <v>522</v>
+      </c>
+      <c r="D72" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" t="s">
+        <v>510</v>
+      </c>
+      <c r="C73" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>608</v>
-      </c>
-      <c r="C71" t="s">
-        <v>537</v>
-      </c>
-      <c r="D71" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>607</v>
-      </c>
-      <c r="C72" t="s">
-        <v>527</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>514</v>
-      </c>
-      <c r="C73" t="s">
-        <v>610</v>
-      </c>
-      <c r="D73" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C76" t="s">
         <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -6888,7 +6855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6896,16 +6863,16 @@
       <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="68.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26171875" customWidth="1"/>
+    <col min="4" max="4" width="68.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -6922,7 +6889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -6935,7 +6902,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>377</v>
@@ -6948,7 +6915,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
         <v>378</v>
@@ -6957,11 +6924,11 @@
         <v>374</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -6974,7 +6941,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -6987,7 +6954,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -7000,7 +6967,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>379</v>
@@ -7013,7 +6980,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -7026,7 +6993,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
@@ -7039,7 +7006,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>313</v>
@@ -7052,7 +7019,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>314</v>
@@ -7065,7 +7032,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>313</v>
@@ -7078,7 +7045,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>314</v>
@@ -7091,14 +7058,14 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -7111,14 +7078,14 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -7130,14 +7097,14 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15"/>
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -7149,14 +7116,14 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -7167,14 +7134,14 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -7186,14 +7153,14 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="15"/>
       <c r="B25" s="12"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -7205,14 +7172,14 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -7225,14 +7192,14 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -7245,14 +7212,14 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
@@ -7265,7 +7232,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6"/>
       <c r="B33" s="3" t="s">
         <v>37</v>
@@ -7278,7 +7245,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6"/>
       <c r="B34" s="3" t="s">
         <v>39</v>
@@ -7291,7 +7258,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
         <v>315</v>
@@ -7304,7 +7271,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
       <c r="B36" s="3" t="s">
         <v>42</v>
@@ -7317,14 +7284,14 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6" t="s">
         <v>247</v>
       </c>
@@ -7337,7 +7304,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6"/>
       <c r="B39" s="13" t="s">
         <v>316</v>
@@ -7348,7 +7315,7 @@
       <c r="D39" s="13"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6"/>
       <c r="B40" s="13" t="s">
         <v>317</v>
@@ -7359,14 +7326,14 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6" t="s">
         <v>44</v>
       </c>
@@ -7379,7 +7346,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6"/>
       <c r="B43" s="3" t="s">
         <v>46</v>
@@ -7392,27 +7359,27 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6"/>
       <c r="B44" s="13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
@@ -7424,10 +7391,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6"/>
       <c r="B47" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>73</v>
@@ -7437,14 +7404,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6" t="s">
         <v>53</v>
       </c>
@@ -7457,7 +7424,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6"/>
       <c r="B50" s="3" t="s">
         <v>39</v>
@@ -7470,7 +7437,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6"/>
       <c r="B51" s="3" t="s">
         <v>318</v>
@@ -7483,7 +7450,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6"/>
       <c r="B52" s="3" t="s">
         <v>315</v>
@@ -7496,14 +7463,14 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6" t="s">
         <v>58</v>
       </c>
@@ -7516,7 +7483,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6"/>
       <c r="B55" s="3" t="s">
         <v>59</v>
@@ -7529,7 +7496,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6"/>
       <c r="B56" s="3" t="s">
         <v>60</v>
@@ -7542,7 +7509,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6"/>
       <c r="B57" s="3" t="s">
         <v>61</v>
@@ -7555,7 +7522,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6"/>
       <c r="B58" s="3" t="s">
         <v>62</v>
@@ -7568,7 +7535,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6"/>
       <c r="B59" s="3" t="s">
         <v>68</v>
@@ -7581,7 +7548,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6"/>
       <c r="B60" s="3" t="s">
         <v>317</v>
@@ -7594,7 +7561,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6"/>
       <c r="B61" s="3" t="s">
         <v>319</v>
@@ -7607,7 +7574,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6"/>
       <c r="B62" s="3" t="s">
         <v>320</v>
@@ -7620,7 +7587,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6"/>
       <c r="B63" s="3" t="s">
         <v>321</v>
@@ -7633,14 +7600,14 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6" t="s">
         <v>82</v>
       </c>
@@ -7651,7 +7618,7 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6"/>
       <c r="B66" s="3" t="s">
         <v>0</v>
@@ -7664,14 +7631,14 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="6" t="s">
         <v>83</v>
       </c>
@@ -7684,7 +7651,7 @@
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="6"/>
       <c r="B69" s="3" t="s">
         <v>84</v>
@@ -7697,7 +7664,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6"/>
       <c r="B70" s="3" t="s">
         <v>85</v>
@@ -7710,14 +7677,14 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="6" t="s">
         <v>90</v>
       </c>
@@ -7730,7 +7697,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="6"/>
       <c r="B73" s="3" t="s">
         <v>39</v>
@@ -7743,7 +7710,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="6"/>
       <c r="B74" s="3" t="s">
         <v>322</v>
@@ -7756,7 +7723,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="6"/>
       <c r="B75" s="3" t="s">
         <v>317</v>
@@ -7769,14 +7736,14 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="6" t="s">
         <v>95</v>
       </c>
@@ -7789,7 +7756,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="6"/>
       <c r="B78" s="3" t="s">
         <v>316</v>
@@ -7802,7 +7769,7 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6"/>
       <c r="B79" s="3" t="s">
         <v>323</v>
@@ -7815,7 +7782,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="6"/>
       <c r="B80" s="3" t="s">
         <v>317</v>
@@ -7830,14 +7797,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="6" t="s">
         <v>96</v>
       </c>
@@ -7850,7 +7817,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="6"/>
       <c r="B83" s="3" t="s">
         <v>122</v>
@@ -7863,7 +7830,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="6"/>
       <c r="B84" s="3" t="s">
         <v>0</v>
@@ -7876,14 +7843,14 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6" t="s">
         <v>113</v>
       </c>
@@ -7896,7 +7863,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6"/>
       <c r="B87" s="3" t="s">
         <v>105</v>
@@ -7909,7 +7876,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="6"/>
       <c r="B88" s="3" t="s">
         <v>39</v>
@@ -7922,7 +7889,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="6"/>
       <c r="B89" s="3" t="s">
         <v>324</v>
@@ -7935,7 +7902,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="6"/>
       <c r="B90" s="3" t="s">
         <v>325</v>
@@ -7948,7 +7915,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6"/>
       <c r="B91" s="3" t="s">
         <v>326</v>
@@ -7961,14 +7928,14 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="6" t="s">
         <v>116</v>
       </c>
@@ -7977,11 +7944,11 @@
         <v>76</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="6"/>
       <c r="B94" s="3" t="s">
         <v>85</v>
@@ -7992,14 +7959,14 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="6" t="s">
         <v>107</v>
       </c>
@@ -8012,7 +7979,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="6"/>
       <c r="B97" s="3" t="s">
         <v>327</v>
@@ -8025,7 +7992,7 @@
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6"/>
       <c r="B98" s="3" t="s">
         <v>39</v>
@@ -8038,7 +8005,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="6"/>
       <c r="B99" s="3" t="s">
         <v>328</v>
@@ -8051,7 +8018,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="6"/>
       <c r="B100" s="3" t="s">
         <v>344</v>
@@ -8064,14 +8031,14 @@
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="6" t="s">
         <v>121</v>
       </c>
@@ -8084,7 +8051,7 @@
       </c>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6"/>
       <c r="B103" s="3" t="s">
         <v>316</v>
@@ -8097,7 +8064,7 @@
       </c>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6"/>
       <c r="B104" s="3" t="s">
         <v>323</v>
@@ -8110,7 +8077,7 @@
       </c>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6"/>
       <c r="B105" s="3" t="s">
         <v>317</v>
@@ -8123,14 +8090,14 @@
       </c>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="6" t="s">
         <v>127</v>
       </c>
@@ -8143,7 +8110,7 @@
       </c>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="6"/>
       <c r="B108" s="3" t="s">
         <v>122</v>
@@ -8156,7 +8123,7 @@
       </c>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="6"/>
       <c r="B109" s="3" t="s">
         <v>0</v>
@@ -8169,14 +8136,14 @@
       </c>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6" t="s">
         <v>131</v>
       </c>
@@ -8189,7 +8156,7 @@
       </c>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="6"/>
       <c r="B112" s="3" t="s">
         <v>139</v>
@@ -8202,7 +8169,7 @@
       </c>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="6"/>
       <c r="B113" s="3" t="s">
         <v>140</v>
@@ -8215,7 +8182,7 @@
       </c>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="6"/>
       <c r="B114" s="3" t="s">
         <v>141</v>
@@ -8228,7 +8195,7 @@
       </c>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="6"/>
       <c r="B115" s="3" t="s">
         <v>3</v>
@@ -8241,7 +8208,7 @@
       </c>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="6"/>
       <c r="B116" s="3" t="s">
         <v>142</v>
@@ -8254,7 +8221,7 @@
       </c>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="6"/>
       <c r="B117" s="3" t="s">
         <v>143</v>
@@ -8267,7 +8234,7 @@
       </c>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="6"/>
       <c r="B118" s="3" t="s">
         <v>144</v>
@@ -8280,7 +8247,7 @@
       </c>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6"/>
       <c r="B119" s="3" t="s">
         <v>317</v>
@@ -8293,7 +8260,7 @@
       </c>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="6"/>
       <c r="B120" s="3" t="s">
         <v>153</v>
@@ -8306,7 +8273,7 @@
       </c>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="6"/>
       <c r="B121" s="3" t="s">
         <v>155</v>
@@ -8319,7 +8286,7 @@
       </c>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6"/>
       <c r="B122" s="3" t="s">
         <v>329</v>
@@ -8332,7 +8299,7 @@
       </c>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="6"/>
       <c r="B123" s="3" t="s">
         <v>330</v>
@@ -8345,7 +8312,7 @@
       </c>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="6"/>
       <c r="B124" s="3" t="s">
         <v>331</v>
@@ -8358,14 +8325,14 @@
       </c>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6" t="s">
         <v>133</v>
       </c>
@@ -8378,7 +8345,7 @@
       </c>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="6"/>
       <c r="B127" s="3" t="s">
         <v>122</v>
@@ -8391,7 +8358,7 @@
       </c>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="6"/>
       <c r="B128" s="3" t="s">
         <v>0</v>
@@ -8402,14 +8369,14 @@
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="6" t="s">
         <v>135</v>
       </c>
@@ -8422,14 +8389,14 @@
       </c>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="6" t="s">
         <v>137</v>
       </c>
@@ -8442,7 +8409,7 @@
       </c>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="6"/>
       <c r="B133" s="3" t="s">
         <v>122</v>
@@ -8455,7 +8422,7 @@
       </c>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="6"/>
       <c r="B134" t="s">
         <v>332</v>
@@ -8468,7 +8435,7 @@
       </c>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -8482,7 +8449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8490,16 +8457,16 @@
       <selection pane="bottomLeft" activeCell="E126" sqref="A126:E126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.15625" customWidth="1"/>
+    <col min="2" max="2" width="24.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.68359375" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -8516,34 +8483,34 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -8551,76 +8518,76 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C10" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -8628,21 +8595,21 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>60</v>
       </c>
@@ -8650,98 +8617,98 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>681</v>
+      </c>
+      <c r="C18" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>682</v>
+      </c>
+      <c r="C19" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>687</v>
-      </c>
-      <c r="C18" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>688</v>
-      </c>
-      <c r="C19" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>689</v>
-      </c>
       <c r="C20" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>344</v>
       </c>
       <c r="C21" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C23" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D23" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C25" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D25" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -8749,61 +8716,61 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C30" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C32" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>323</v>
       </c>
       <c r="C33" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -8811,243 +8778,243 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C38" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C40" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C42" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C44" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C46" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C48" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C52" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C53" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C54" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C56" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C57" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C59" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C61" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C66" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" t="s">
         <v>323</v>
       </c>
       <c r="C67" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" t="s">
         <v>317</v>
       </c>
@@ -9055,22 +9022,22 @@
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -9078,19 +9045,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
         <v>176</v>
       </c>
@@ -9098,7 +9065,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" t="s">
         <v>218</v>
       </c>
@@ -9106,15 +9073,15 @@
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C76" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" t="s">
         <v>323</v>
       </c>
@@ -9122,38 +9089,38 @@
         <v>297</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" t="s">
         <v>316</v>
       </c>
       <c r="C78" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C79" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C81" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" t="s">
         <v>176</v>
       </c>
@@ -9161,7 +9128,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" t="s">
         <v>218</v>
       </c>
@@ -9169,7 +9136,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -9177,30 +9144,30 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C85" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C87" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -9208,100 +9175,100 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C90" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C91" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C92" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C94" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C95" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C96" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C97" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
         <v>321</v>
       </c>
       <c r="C98" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C100" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
         <v>176</v>
       </c>
@@ -9309,7 +9276,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
         <v>218</v>
       </c>
@@ -9317,7 +9284,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" t="s">
         <v>0</v>
       </c>
@@ -9325,25 +9292,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C105" t="s">
         <v>76</v>
       </c>
       <c r="D105" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
         <v>176</v>
       </c>
@@ -9351,32 +9318,32 @@
         <v>374</v>
       </c>
       <c r="D106" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C107" t="s">
         <v>73</v>
       </c>
       <c r="D107" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C108" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D108" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" t="s">
         <v>167</v>
       </c>
@@ -9384,144 +9351,144 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C110" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D110" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C111" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C112" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C114" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D114" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C116" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D116" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C118" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C119" t="s">
         <v>72</v>
       </c>
       <c r="D119" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C120" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D120" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C121" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D121" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C122" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D122" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C124" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" t="s">
         <v>0</v>
       </c>
@@ -9529,10 +9496,10 @@
         <v>73</v>
       </c>
       <c r="D125" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -9545,70 +9512,70 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84249ED9-281B-4B1B-B0B3-FF6EFD745BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="189.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="189.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="17" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B6" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="G1iAiQhujtc8zbHC_F-qAgPAH7AQR3oS-_" xr:uid="{BA2CF886-130B-4BE5-A46B-0D305E1EC265}"/>
+    <hyperlink ref="A2" r:id="rId1" location="G1iAiQhujtc8zbHC_F-qAgPAH7AQR3oS-_"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
